--- a/sputnik/personal/ee/64ee.xlsx
+++ b/sputnik/personal/ee/64ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -469,10 +469,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -648,26 +648,77 @@
       <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="3" t="s">
+      <c r="A8" s="10">
+        <v>43934</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
+        <v>11686</v>
+      </c>
+      <c r="D8" s="3">
+        <f>SUM(C8,-C6)</f>
+        <v>306</v>
+      </c>
+      <c r="E8" s="8">
+        <v>4.49</v>
+      </c>
+      <c r="F8" s="6">
+        <f>D8*E8</f>
+        <v>1373.94</v>
+      </c>
+      <c r="G8" s="6">
+        <f>SUM(F8,F9)</f>
+        <v>1616.94</v>
+      </c>
+      <c r="H8" s="6">
+        <v>1616.94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>5480</v>
+      </c>
+      <c r="D9" s="3">
+        <f>SUM(C9,-C7)</f>
+        <v>100</v>
+      </c>
+      <c r="E9" s="9">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F9" s="6">
+        <f>D9*E9</f>
+        <v>243.00000000000003</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="6">
-        <f>SUM(G2:G7)</f>
-        <v>4237.0200000000004</v>
-      </c>
-      <c r="H8" s="6">
-        <f>SUM(H2:H7)</f>
-        <v>4237.0200000000004</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
+      <c r="G10" s="6">
+        <f>SUM(G2:G9)</f>
+        <v>5853.9600000000009</v>
+      </c>
+      <c r="H10" s="6">
+        <f>SUM(H2:H9)</f>
+        <v>5853.9600000000009</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/64ee.xlsx
+++ b/sputnik/personal/ee/64ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -469,10 +469,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -556,14 +556,14 @@
         <v>11208</v>
       </c>
       <c r="D4" s="3">
-        <f>SUM(C4,-C2)</f>
+        <f t="shared" ref="D4:D11" si="0">SUM(C4,-C2)</f>
         <v>566</v>
       </c>
       <c r="E4" s="8">
         <v>4.49</v>
       </c>
       <c r="F4" s="6">
-        <f>D4*E4</f>
+        <f t="shared" ref="F4:F9" si="1">D4*E4</f>
         <v>2541.34</v>
       </c>
       <c r="G4" s="6">
@@ -583,14 +583,14 @@
         <v>5275</v>
       </c>
       <c r="D5" s="3">
-        <f>SUM(C5,-C3)</f>
+        <f t="shared" si="0"/>
         <v>275</v>
       </c>
       <c r="E5" s="9">
         <v>2.4300000000000002</v>
       </c>
       <c r="F5" s="6">
-        <f>D5*E5</f>
+        <f t="shared" si="1"/>
         <v>668.25</v>
       </c>
       <c r="G5" s="6"/>
@@ -607,14 +607,14 @@
         <v>11380</v>
       </c>
       <c r="D6" s="3">
-        <f>SUM(C6,-C4)</f>
+        <f t="shared" si="0"/>
         <v>172</v>
       </c>
       <c r="E6" s="8">
         <v>4.49</v>
       </c>
       <c r="F6" s="6">
-        <f>D6*E6</f>
+        <f t="shared" si="1"/>
         <v>772.28000000000009</v>
       </c>
       <c r="G6" s="6">
@@ -634,14 +634,14 @@
         <v>5380</v>
       </c>
       <c r="D7" s="3">
-        <f>SUM(C7,-C5)</f>
+        <f t="shared" si="0"/>
         <v>105</v>
       </c>
       <c r="E7" s="9">
         <v>2.4300000000000002</v>
       </c>
       <c r="F7" s="6">
-        <f>D7*E7</f>
+        <f t="shared" si="1"/>
         <v>255.15</v>
       </c>
       <c r="G7" s="6"/>
@@ -658,14 +658,14 @@
         <v>11686</v>
       </c>
       <c r="D8" s="3">
-        <f>SUM(C8,-C6)</f>
+        <f t="shared" si="0"/>
         <v>306</v>
       </c>
       <c r="E8" s="8">
         <v>4.49</v>
       </c>
       <c r="F8" s="6">
-        <f>D8*E8</f>
+        <f t="shared" si="1"/>
         <v>1373.94</v>
       </c>
       <c r="G8" s="6">
@@ -685,40 +685,91 @@
         <v>5480</v>
       </c>
       <c r="D9" s="3">
-        <f>SUM(C9,-C7)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E9" s="9">
         <v>2.4300000000000002</v>
       </c>
       <c r="F9" s="6">
-        <f>D9*E9</f>
+        <f t="shared" si="1"/>
         <v>243.00000000000003</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="3" t="s">
+      <c r="A10" s="10">
+        <v>43980</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3">
+        <v>12235</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" si="0"/>
+        <v>549</v>
+      </c>
+      <c r="E10" s="8">
+        <v>4.49</v>
+      </c>
+      <c r="F10" s="6">
+        <f t="shared" ref="F10:F11" si="2">D10*E10</f>
+        <v>2465.0100000000002</v>
+      </c>
+      <c r="G10" s="6">
+        <f>SUM(F10,F11)</f>
+        <v>2902.4100000000003</v>
+      </c>
+      <c r="H10" s="6">
+        <v>2902.41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3">
+        <v>5660</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="E11" s="9">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F11" s="6">
+        <f t="shared" si="2"/>
+        <v>437.40000000000003</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="6">
-        <f>SUM(G2:G9)</f>
-        <v>5853.9600000000009</v>
-      </c>
-      <c r="H10" s="6">
-        <f>SUM(H2:H9)</f>
-        <v>5853.9600000000009</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
+      <c r="G12" s="6">
+        <f>SUM(G2:G11)</f>
+        <v>8756.3700000000008</v>
+      </c>
+      <c r="H12" s="6">
+        <f>SUM(H2:H11)</f>
+        <v>8756.3700000000008</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/64ee.xlsx
+++ b/sputnik/personal/ee/64ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -469,10 +469,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -750,26 +750,77 @@
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="3" t="s">
+      <c r="A12" s="10">
+        <v>44005</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3">
+        <v>12545</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" ref="D12:D13" si="3">SUM(C12,-C10)</f>
+        <v>310</v>
+      </c>
+      <c r="E12" s="8">
+        <v>4.49</v>
+      </c>
+      <c r="F12" s="6">
+        <f t="shared" ref="F12:F13" si="4">D12*E12</f>
+        <v>1391.9</v>
+      </c>
+      <c r="G12" s="6">
+        <f>SUM(F12,F13)</f>
+        <v>1666.4900000000002</v>
+      </c>
+      <c r="H12" s="6">
+        <v>1666.49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>5773</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="3"/>
+        <v>113</v>
+      </c>
+      <c r="E13" s="9">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F13" s="6">
+        <f t="shared" si="4"/>
+        <v>274.59000000000003</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="6">
-        <f>SUM(G2:G11)</f>
-        <v>8756.3700000000008</v>
-      </c>
-      <c r="H12" s="6">
-        <f>SUM(H2:H11)</f>
-        <v>8756.3700000000008</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
+      <c r="G14" s="6">
+        <f>SUM(G2:G13)</f>
+        <v>10422.86</v>
+      </c>
+      <c r="H14" s="6">
+        <f>SUM(H2:H13)</f>
+        <v>10422.86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/64ee.xlsx
+++ b/sputnik/personal/ee/64ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -469,10 +469,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -801,26 +801,77 @@
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="3" t="s">
+      <c r="A14" s="10">
+        <v>44053</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3">
+        <v>12730</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" ref="D14:D15" si="5">SUM(C14,-C12)</f>
+        <v>185</v>
+      </c>
+      <c r="E14" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="F14" s="6">
+        <f t="shared" ref="F14:F15" si="6">D14*E14</f>
+        <v>871.35</v>
+      </c>
+      <c r="G14" s="6">
+        <f>SUM(F14,F15)</f>
+        <v>1016.7</v>
+      </c>
+      <c r="H14" s="6">
+        <v>1016.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3">
+        <v>5830</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" si="5"/>
+        <v>57</v>
+      </c>
+      <c r="E15" s="9">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F15" s="6">
+        <f t="shared" si="6"/>
+        <v>145.35</v>
+      </c>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="6">
-        <f>SUM(G2:G13)</f>
-        <v>10422.86</v>
-      </c>
-      <c r="H14" s="6">
-        <f>SUM(H2:H13)</f>
-        <v>10422.86</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
+      <c r="G16" s="6">
+        <f>SUM(G2:G15)</f>
+        <v>11439.560000000001</v>
+      </c>
+      <c r="H16" s="6">
+        <f>SUM(H2:H15)</f>
+        <v>11439.560000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/64ee.xlsx
+++ b/sputnik/personal/ee/64ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -469,10 +469,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -852,26 +852,77 @@
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="3" t="s">
+      <c r="A16" s="10">
+        <v>44090</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="3">
+        <v>12970</v>
+      </c>
+      <c r="D16" s="3">
+        <f t="shared" ref="D16:D17" si="7">SUM(C16,-C14)</f>
+        <v>240</v>
+      </c>
+      <c r="E16" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="F16" s="6">
+        <f t="shared" ref="F16:F17" si="8">D16*E16</f>
+        <v>1130.4000000000001</v>
+      </c>
+      <c r="G16" s="6">
+        <f>SUM(F16,F17)</f>
+        <v>1334.4</v>
+      </c>
+      <c r="H16" s="6">
+        <v>1334.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3">
+        <v>5910</v>
+      </c>
+      <c r="D17" s="3">
+        <f t="shared" si="7"/>
+        <v>80</v>
+      </c>
+      <c r="E17" s="9">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F17" s="6">
+        <f t="shared" si="8"/>
+        <v>204</v>
+      </c>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G18" s="6">
         <f>SUM(G2:G15)</f>
         <v>11439.560000000001</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H18" s="6">
         <f>SUM(H2:H15)</f>
         <v>11439.560000000001</v>
       </c>
     </row>
-    <row r="17" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/64ee.xlsx
+++ b/sputnik/personal/ee/64ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -469,10 +469,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -903,26 +903,77 @@
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="3" t="s">
+      <c r="A18" s="10">
+        <v>44140</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3">
+        <v>13250</v>
+      </c>
+      <c r="D18" s="3">
+        <f t="shared" ref="D18:D19" si="9">SUM(C18,-C16)</f>
+        <v>280</v>
+      </c>
+      <c r="E18" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="F18" s="6">
+        <f t="shared" ref="F18:F19" si="10">D18*E18</f>
+        <v>1318.8</v>
+      </c>
+      <c r="G18" s="6">
+        <f>SUM(F18,F19)</f>
+        <v>1446.3</v>
+      </c>
+      <c r="H18" s="6">
+        <v>1446.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3">
+        <v>5960</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" si="9"/>
+        <v>50</v>
+      </c>
+      <c r="E19" s="9">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F19" s="6">
+        <f t="shared" si="10"/>
+        <v>127.49999999999999</v>
+      </c>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="6">
-        <f>SUM(G2:G15)</f>
-        <v>11439.560000000001</v>
-      </c>
-      <c r="H18" s="6">
-        <f>SUM(H2:H15)</f>
-        <v>11439.560000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
+      <c r="G20" s="6">
+        <f>SUM(G2:G19)</f>
+        <v>14220.26</v>
+      </c>
+      <c r="H20" s="6">
+        <f>SUM(H2:H19)</f>
+        <v>14220.26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/64ee.xlsx
+++ b/sputnik/personal/ee/64ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -469,10 +469,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -954,26 +954,77 @@
       <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="3" t="s">
+      <c r="A20" s="10">
+        <v>44173</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="3">
+        <v>13500</v>
+      </c>
+      <c r="D20" s="3">
+        <f t="shared" ref="D20:D21" si="11">SUM(C20,-C18)</f>
+        <v>250</v>
+      </c>
+      <c r="E20" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="F20" s="6">
+        <f t="shared" ref="F20:F21" si="12">D20*E20</f>
+        <v>1177.5</v>
+      </c>
+      <c r="G20" s="6">
+        <f>SUM(F20,F21)</f>
+        <v>1662</v>
+      </c>
+      <c r="H20" s="6">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3">
+        <v>6150</v>
+      </c>
+      <c r="D21" s="3">
+        <f t="shared" si="11"/>
+        <v>190</v>
+      </c>
+      <c r="E21" s="9">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F21" s="6">
+        <f t="shared" si="12"/>
+        <v>484.49999999999994</v>
+      </c>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="6">
-        <f>SUM(G2:G19)</f>
-        <v>14220.26</v>
-      </c>
-      <c r="H20" s="6">
-        <f>SUM(H2:H19)</f>
-        <v>14220.26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
+      <c r="G22" s="6">
+        <f>SUM(G2:G21)</f>
+        <v>15882.26</v>
+      </c>
+      <c r="H22" s="6">
+        <f>SUM(H2:H21)</f>
+        <v>15882.26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/64ee.xlsx
+++ b/sputnik/personal/ee/64ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -469,7 +469,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H22" sqref="H22"/>
@@ -1005,26 +1005,77 @@
       <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="3" t="s">
+      <c r="A22" s="10">
+        <v>44207</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="3">
+        <v>13800</v>
+      </c>
+      <c r="D22" s="3">
+        <f t="shared" ref="D22:D23" si="13">SUM(C22,-C20)</f>
+        <v>300</v>
+      </c>
+      <c r="E22" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="F22" s="6">
+        <f t="shared" ref="F22:F23" si="14">D22*E22</f>
+        <v>1413</v>
+      </c>
+      <c r="G22" s="6">
+        <f>SUM(F22,F23)</f>
+        <v>2050.5</v>
+      </c>
+      <c r="H22" s="6">
+        <v>2050.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3">
+        <v>6400</v>
+      </c>
+      <c r="D23" s="3">
+        <f t="shared" si="13"/>
+        <v>250</v>
+      </c>
+      <c r="E23" s="9">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F23" s="6">
+        <f t="shared" si="14"/>
+        <v>637.5</v>
+      </c>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G24" s="6">
         <f>SUM(G2:G21)</f>
         <v>15882.26</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H24" s="6">
         <f>SUM(H2:H21)</f>
         <v>15882.26</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/64ee.xlsx
+++ b/sputnik/personal/ee/64ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -96,12 +96,18 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -131,7 +137,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -160,6 +166,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -469,10 +490,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -515,63 +536,84 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10">
-        <v>43805</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3">
-        <v>10642</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-    </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="12">
+        <v>44308</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="13">
+        <v>14400</v>
+      </c>
+      <c r="D2" s="13">
+        <f>SUM(C2,-C4)</f>
+        <v>150</v>
+      </c>
+      <c r="E2" s="14">
+        <v>4.71</v>
+      </c>
+      <c r="F2" s="15">
+        <f t="shared" ref="F2:F27" si="0">D2*E2</f>
+        <v>706.5</v>
+      </c>
+      <c r="G2" s="15">
+        <f>SUM(F2,F3)</f>
+        <v>859.5</v>
+      </c>
+      <c r="H2" s="15">
+        <v>859.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
-      <c r="B3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3">
-        <v>5000</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
+      <c r="B3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13">
+        <v>6610</v>
+      </c>
+      <c r="D3" s="13">
+        <f>SUM(C3,-C5)</f>
+        <v>60</v>
+      </c>
+      <c r="E3" s="16">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F3" s="15">
+        <f t="shared" si="0"/>
+        <v>153</v>
+      </c>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
-        <v>43830</v>
+        <v>44260</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="3">
-        <v>11208</v>
+        <v>14250</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" ref="D4:D11" si="0">SUM(C4,-C2)</f>
-        <v>566</v>
+        <f t="shared" ref="D4:D21" si="1">SUM(C4,-C6)</f>
+        <v>250</v>
       </c>
       <c r="E4" s="8">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F4" s="6">
-        <f t="shared" ref="F4:F9" si="1">D4*E4</f>
-        <v>2541.34</v>
+        <f t="shared" si="0"/>
+        <v>1177.5</v>
       </c>
       <c r="G4" s="6">
         <f>SUM(F4,F5)</f>
-        <v>3209.59</v>
+        <v>1305</v>
       </c>
       <c r="H4" s="6">
-        <v>3209.59</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -580,49 +622,49 @@
         <v>1</v>
       </c>
       <c r="C5" s="3">
-        <v>5275</v>
+        <v>6550</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" si="0"/>
-        <v>275</v>
+        <f t="shared" si="1"/>
+        <v>50</v>
       </c>
       <c r="E5" s="9">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F5" s="6">
-        <f t="shared" si="1"/>
-        <v>668.25</v>
+        <f t="shared" si="0"/>
+        <v>127.49999999999999</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
-        <v>43915</v>
+        <v>44238</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="3">
-        <v>11380</v>
+        <v>14000</v>
       </c>
       <c r="D6" s="3">
-        <f t="shared" si="0"/>
-        <v>172</v>
+        <f t="shared" si="1"/>
+        <v>200</v>
       </c>
       <c r="E6" s="8">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F6" s="6">
-        <f t="shared" si="1"/>
-        <v>772.28000000000009</v>
+        <f t="shared" si="0"/>
+        <v>942</v>
       </c>
       <c r="G6" s="6">
         <f>SUM(F6,F7)</f>
-        <v>1027.43</v>
+        <v>1197</v>
       </c>
       <c r="H6" s="6">
-        <v>1027.43</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -631,49 +673,49 @@
         <v>1</v>
       </c>
       <c r="C7" s="3">
-        <v>5380</v>
+        <v>6500</v>
       </c>
       <c r="D7" s="3">
-        <f t="shared" si="0"/>
-        <v>105</v>
+        <f t="shared" si="1"/>
+        <v>100</v>
       </c>
       <c r="E7" s="9">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F7" s="6">
-        <f t="shared" si="1"/>
-        <v>255.15</v>
+        <f t="shared" si="0"/>
+        <v>254.99999999999997</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
-        <v>43934</v>
+        <v>44207</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="3">
-        <v>11686</v>
+        <v>13800</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" si="0"/>
-        <v>306</v>
+        <f t="shared" si="1"/>
+        <v>300</v>
       </c>
       <c r="E8" s="8">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F8" s="6">
-        <f t="shared" si="1"/>
-        <v>1373.94</v>
+        <f t="shared" si="0"/>
+        <v>1413</v>
       </c>
       <c r="G8" s="6">
         <f>SUM(F8,F9)</f>
-        <v>1616.94</v>
+        <v>2050.5</v>
       </c>
       <c r="H8" s="6">
-        <v>1616.94</v>
+        <v>2050.5</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -682,49 +724,49 @@
         <v>1</v>
       </c>
       <c r="C9" s="3">
-        <v>5480</v>
+        <v>6400</v>
       </c>
       <c r="D9" s="3">
-        <f t="shared" si="0"/>
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>250</v>
       </c>
       <c r="E9" s="9">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F9" s="6">
-        <f t="shared" si="1"/>
-        <v>243.00000000000003</v>
+        <f t="shared" si="0"/>
+        <v>637.5</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
-        <v>43980</v>
+        <v>44173</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="3">
-        <v>12235</v>
+        <v>13500</v>
       </c>
       <c r="D10" s="3">
-        <f t="shared" si="0"/>
-        <v>549</v>
+        <f t="shared" si="1"/>
+        <v>250</v>
       </c>
       <c r="E10" s="8">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F10" s="6">
-        <f t="shared" ref="F10:F11" si="2">D10*E10</f>
-        <v>2465.0100000000002</v>
+        <f t="shared" si="0"/>
+        <v>1177.5</v>
       </c>
       <c r="G10" s="6">
         <f>SUM(F10,F11)</f>
-        <v>2902.4100000000003</v>
+        <v>1662</v>
       </c>
       <c r="H10" s="6">
-        <v>2902.41</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -733,49 +775,49 @@
         <v>1</v>
       </c>
       <c r="C11" s="3">
-        <v>5660</v>
+        <v>6150</v>
       </c>
       <c r="D11" s="3">
-        <f t="shared" si="0"/>
-        <v>180</v>
+        <f t="shared" si="1"/>
+        <v>190</v>
       </c>
       <c r="E11" s="9">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F11" s="6">
-        <f t="shared" si="2"/>
-        <v>437.40000000000003</v>
+        <f t="shared" si="0"/>
+        <v>484.49999999999994</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
-        <v>44005</v>
+        <v>44140</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="3">
-        <v>12545</v>
+        <v>13250</v>
       </c>
       <c r="D12" s="3">
-        <f t="shared" ref="D12:D13" si="3">SUM(C12,-C10)</f>
-        <v>310</v>
+        <f t="shared" si="1"/>
+        <v>280</v>
       </c>
       <c r="E12" s="8">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F12" s="6">
-        <f t="shared" ref="F12:F13" si="4">D12*E12</f>
-        <v>1391.9</v>
+        <f t="shared" si="0"/>
+        <v>1318.8</v>
       </c>
       <c r="G12" s="6">
         <f>SUM(F12,F13)</f>
-        <v>1666.4900000000002</v>
+        <v>1446.3</v>
       </c>
       <c r="H12" s="6">
-        <v>1666.49</v>
+        <v>1446.3</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -784,49 +826,49 @@
         <v>1</v>
       </c>
       <c r="C13" s="3">
-        <v>5773</v>
+        <v>5960</v>
       </c>
       <c r="D13" s="3">
-        <f t="shared" si="3"/>
-        <v>113</v>
+        <f t="shared" si="1"/>
+        <v>50</v>
       </c>
       <c r="E13" s="9">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F13" s="6">
-        <f t="shared" si="4"/>
-        <v>274.59000000000003</v>
+        <f t="shared" si="0"/>
+        <v>127.49999999999999</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
-        <v>44053</v>
+        <v>44090</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="3">
-        <v>12730</v>
+        <v>12970</v>
       </c>
       <c r="D14" s="3">
-        <f t="shared" ref="D14:D15" si="5">SUM(C14,-C12)</f>
-        <v>185</v>
+        <f t="shared" si="1"/>
+        <v>240</v>
       </c>
       <c r="E14" s="8">
         <v>4.71</v>
       </c>
       <c r="F14" s="6">
-        <f t="shared" ref="F14:F15" si="6">D14*E14</f>
-        <v>871.35</v>
+        <f t="shared" si="0"/>
+        <v>1130.4000000000001</v>
       </c>
       <c r="G14" s="6">
         <f>SUM(F14,F15)</f>
-        <v>1016.7</v>
+        <v>1334.4</v>
       </c>
       <c r="H14" s="6">
-        <v>1016.7</v>
+        <v>1334.4</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -835,49 +877,49 @@
         <v>1</v>
       </c>
       <c r="C15" s="3">
-        <v>5830</v>
+        <v>5910</v>
       </c>
       <c r="D15" s="3">
-        <f t="shared" si="5"/>
-        <v>57</v>
+        <f t="shared" si="1"/>
+        <v>80</v>
       </c>
       <c r="E15" s="9">
         <v>2.5499999999999998</v>
       </c>
       <c r="F15" s="6">
-        <f t="shared" si="6"/>
-        <v>145.35</v>
+        <f t="shared" si="0"/>
+        <v>204</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
-        <v>44090</v>
+        <v>44053</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="3">
-        <v>12970</v>
+        <v>12730</v>
       </c>
       <c r="D16" s="3">
-        <f t="shared" ref="D16:D17" si="7">SUM(C16,-C14)</f>
-        <v>240</v>
+        <f t="shared" si="1"/>
+        <v>185</v>
       </c>
       <c r="E16" s="8">
         <v>4.71</v>
       </c>
       <c r="F16" s="6">
-        <f t="shared" ref="F16:F17" si="8">D16*E16</f>
-        <v>1130.4000000000001</v>
+        <f t="shared" si="0"/>
+        <v>871.35</v>
       </c>
       <c r="G16" s="6">
         <f>SUM(F16,F17)</f>
-        <v>1334.4</v>
+        <v>1016.7</v>
       </c>
       <c r="H16" s="6">
-        <v>1334.4</v>
+        <v>1016.7</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -886,49 +928,49 @@
         <v>1</v>
       </c>
       <c r="C17" s="3">
-        <v>5910</v>
+        <v>5830</v>
       </c>
       <c r="D17" s="3">
-        <f t="shared" si="7"/>
-        <v>80</v>
+        <f t="shared" si="1"/>
+        <v>57</v>
       </c>
       <c r="E17" s="9">
         <v>2.5499999999999998</v>
       </c>
       <c r="F17" s="6">
-        <f t="shared" si="8"/>
-        <v>204</v>
+        <f t="shared" si="0"/>
+        <v>145.35</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
-        <v>44140</v>
+        <v>44005</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C18" s="3">
-        <v>13250</v>
+        <v>12545</v>
       </c>
       <c r="D18" s="3">
-        <f t="shared" ref="D18:D19" si="9">SUM(C18,-C16)</f>
-        <v>280</v>
+        <f t="shared" si="1"/>
+        <v>310</v>
       </c>
       <c r="E18" s="8">
-        <v>4.71</v>
+        <v>4.49</v>
       </c>
       <c r="F18" s="6">
-        <f t="shared" ref="F18:F19" si="10">D18*E18</f>
-        <v>1318.8</v>
+        <f t="shared" si="0"/>
+        <v>1391.9</v>
       </c>
       <c r="G18" s="6">
         <f>SUM(F18,F19)</f>
-        <v>1446.3</v>
+        <v>1666.4900000000002</v>
       </c>
       <c r="H18" s="6">
-        <v>1446.3</v>
+        <v>1666.49</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -937,49 +979,49 @@
         <v>1</v>
       </c>
       <c r="C19" s="3">
-        <v>5960</v>
+        <v>5773</v>
       </c>
       <c r="D19" s="3">
-        <f t="shared" si="9"/>
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>113</v>
       </c>
       <c r="E19" s="9">
-        <v>2.5499999999999998</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="F19" s="6">
-        <f t="shared" si="10"/>
-        <v>127.49999999999999</v>
+        <f t="shared" si="0"/>
+        <v>274.59000000000003</v>
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
-        <v>44173</v>
+        <v>43980</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C20" s="3">
-        <v>13500</v>
+        <v>12235</v>
       </c>
       <c r="D20" s="3">
-        <f t="shared" ref="D20:D21" si="11">SUM(C20,-C18)</f>
-        <v>250</v>
+        <f t="shared" si="1"/>
+        <v>549</v>
       </c>
       <c r="E20" s="8">
-        <v>4.71</v>
+        <v>4.49</v>
       </c>
       <c r="F20" s="6">
-        <f t="shared" ref="F20:F21" si="12">D20*E20</f>
-        <v>1177.5</v>
+        <f t="shared" si="0"/>
+        <v>2465.0100000000002</v>
       </c>
       <c r="G20" s="6">
         <f>SUM(F20,F21)</f>
-        <v>1662</v>
+        <v>2902.4100000000003</v>
       </c>
       <c r="H20" s="6">
-        <v>1662</v>
+        <v>2902.41</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -988,49 +1030,49 @@
         <v>1</v>
       </c>
       <c r="C21" s="3">
-        <v>6150</v>
+        <v>5660</v>
       </c>
       <c r="D21" s="3">
-        <f t="shared" si="11"/>
-        <v>190</v>
+        <f t="shared" si="1"/>
+        <v>180</v>
       </c>
       <c r="E21" s="9">
-        <v>2.5499999999999998</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="F21" s="6">
-        <f t="shared" si="12"/>
-        <v>484.49999999999994</v>
+        <f t="shared" si="0"/>
+        <v>437.40000000000003</v>
       </c>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
-        <v>44207</v>
+        <v>43934</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C22" s="3">
-        <v>13800</v>
+        <v>11686</v>
       </c>
       <c r="D22" s="3">
-        <f t="shared" ref="D22:D23" si="13">SUM(C22,-C20)</f>
-        <v>300</v>
+        <f>SUM(C22,-C24)</f>
+        <v>306</v>
       </c>
       <c r="E22" s="8">
-        <v>4.71</v>
+        <v>4.49</v>
       </c>
       <c r="F22" s="6">
-        <f t="shared" ref="F22:F23" si="14">D22*E22</f>
-        <v>1413</v>
+        <f t="shared" si="0"/>
+        <v>1373.94</v>
       </c>
       <c r="G22" s="6">
         <f>SUM(F22,F23)</f>
-        <v>2050.5</v>
+        <v>1616.94</v>
       </c>
       <c r="H22" s="6">
-        <v>2050.5</v>
+        <v>1616.94</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1039,48 +1081,180 @@
         <v>1</v>
       </c>
       <c r="C23" s="3">
-        <v>6400</v>
+        <v>5480</v>
       </c>
       <c r="D23" s="3">
-        <f t="shared" si="13"/>
-        <v>250</v>
+        <f>SUM(C23,-C25)</f>
+        <v>100</v>
       </c>
       <c r="E23" s="9">
-        <v>2.5499999999999998</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="F23" s="6">
-        <f t="shared" si="14"/>
-        <v>637.5</v>
+        <f t="shared" si="0"/>
+        <v>243.00000000000003</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="3" t="s">
+      <c r="A24" s="10">
+        <v>43915</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="3">
+        <v>11380</v>
+      </c>
+      <c r="D24" s="3">
+        <f>SUM(C24,-C26)</f>
+        <v>172</v>
+      </c>
+      <c r="E24" s="8">
+        <v>4.49</v>
+      </c>
+      <c r="F24" s="6">
+        <f t="shared" si="0"/>
+        <v>772.28000000000009</v>
+      </c>
+      <c r="G24" s="6">
+        <f>SUM(F24,F25)</f>
+        <v>1027.43</v>
+      </c>
+      <c r="H24" s="6">
+        <v>1027.43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3">
+        <v>5380</v>
+      </c>
+      <c r="D25" s="3">
+        <f>SUM(C25,-C27)</f>
+        <v>105</v>
+      </c>
+      <c r="E25" s="9">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F25" s="6">
+        <f t="shared" si="0"/>
+        <v>255.15</v>
+      </c>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="10">
+        <v>43830</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="3">
+        <v>11208</v>
+      </c>
+      <c r="D26" s="3">
+        <f>SUM(C26,-C28)</f>
+        <v>566</v>
+      </c>
+      <c r="E26" s="8">
+        <v>4.49</v>
+      </c>
+      <c r="F26" s="6">
+        <f t="shared" si="0"/>
+        <v>2541.34</v>
+      </c>
+      <c r="G26" s="6">
+        <f>SUM(F26,F27)</f>
+        <v>3209.59</v>
+      </c>
+      <c r="H26" s="6">
+        <v>3209.59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3">
+        <v>5275</v>
+      </c>
+      <c r="D27" s="3">
+        <f>SUM(C27,-C29)</f>
+        <v>275</v>
+      </c>
+      <c r="E27" s="9">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F27" s="6">
+        <f t="shared" si="0"/>
+        <v>668.25</v>
+      </c>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="10">
+        <v>43805</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="3">
+        <v>10642</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3">
+        <v>5000</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G24" s="6">
-        <f>SUM(G2:G21)</f>
-        <v>15882.26</v>
-      </c>
-      <c r="H24" s="6">
-        <f>SUM(H2:H21)</f>
-        <v>15882.26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
+      <c r="G30" s="6">
+        <f>SUM(G2:G29)</f>
+        <v>21294.26</v>
+      </c>
+      <c r="H30" s="6">
+        <f>SUM(H2:H29)</f>
+        <v>21294.26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="98" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/sputnik/personal/ee/64ee.xlsx
+++ b/sputnik/personal/ee/64ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -96,7 +96,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -106,6 +106,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -137,7 +143,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -181,6 +187,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -490,10 +514,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -538,13 +562,13 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
-        <v>44308</v>
+        <v>44340</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="13">
-        <v>14400</v>
+        <v>14550</v>
       </c>
       <c r="D2" s="13">
         <f>SUM(C2,-C4)</f>
@@ -554,15 +578,15 @@
         <v>4.71</v>
       </c>
       <c r="F2" s="15">
-        <f t="shared" ref="F2:F27" si="0">D2*E2</f>
+        <f t="shared" ref="F2:F3" si="0">D2*E2</f>
         <v>706.5</v>
       </c>
       <c r="G2" s="15">
         <f>SUM(F2,F3)</f>
-        <v>859.5</v>
+        <v>910.5</v>
       </c>
       <c r="H2" s="15">
-        <v>859.5</v>
+        <v>910.5</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -571,100 +595,100 @@
         <v>1</v>
       </c>
       <c r="C3" s="13">
-        <v>6610</v>
+        <v>6690</v>
       </c>
       <c r="D3" s="13">
         <f>SUM(C3,-C5)</f>
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="E3" s="16">
         <v>2.5499999999999998</v>
       </c>
       <c r="F3" s="15">
         <f t="shared" si="0"/>
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="G3" s="15"/>
       <c r="H3" s="15"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
-        <v>44260</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3">
-        <v>14250</v>
-      </c>
-      <c r="D4" s="3">
-        <f t="shared" ref="D4:D21" si="1">SUM(C4,-C6)</f>
-        <v>250</v>
-      </c>
-      <c r="E4" s="8">
+      <c r="A4" s="17">
+        <v>44308</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="18">
+        <v>14400</v>
+      </c>
+      <c r="D4" s="18">
+        <f>SUM(C4,-C6)</f>
+        <v>150</v>
+      </c>
+      <c r="E4" s="19">
         <v>4.71</v>
       </c>
-      <c r="F4" s="6">
-        <f t="shared" si="0"/>
-        <v>1177.5</v>
-      </c>
-      <c r="G4" s="6">
+      <c r="F4" s="20">
+        <f t="shared" ref="F4:F29" si="1">D4*E4</f>
+        <v>706.5</v>
+      </c>
+      <c r="G4" s="20">
         <f>SUM(F4,F5)</f>
-        <v>1305</v>
-      </c>
-      <c r="H4" s="6">
-        <v>1305</v>
+        <v>859.5</v>
+      </c>
+      <c r="H4" s="20">
+        <v>859.5</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3">
-        <v>6550</v>
-      </c>
-      <c r="D5" s="3">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="E5" s="9">
+      <c r="A5" s="21"/>
+      <c r="B5" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="18">
+        <v>6610</v>
+      </c>
+      <c r="D5" s="18">
+        <f>SUM(C5,-C7)</f>
+        <v>60</v>
+      </c>
+      <c r="E5" s="22">
         <v>2.5499999999999998</v>
       </c>
-      <c r="F5" s="6">
-        <f t="shared" si="0"/>
-        <v>127.49999999999999</v>
-      </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
+      <c r="F5" s="20">
+        <f t="shared" si="1"/>
+        <v>153</v>
+      </c>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
-        <v>44238</v>
+        <v>44260</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="3">
-        <v>14000</v>
+        <v>14250</v>
       </c>
       <c r="D6" s="3">
-        <f t="shared" si="1"/>
-        <v>200</v>
+        <f t="shared" ref="D6:D23" si="2">SUM(C6,-C8)</f>
+        <v>250</v>
       </c>
       <c r="E6" s="8">
         <v>4.71</v>
       </c>
       <c r="F6" s="6">
-        <f t="shared" si="0"/>
-        <v>942</v>
+        <f t="shared" si="1"/>
+        <v>1177.5</v>
       </c>
       <c r="G6" s="6">
         <f>SUM(F6,F7)</f>
-        <v>1197</v>
+        <v>1305</v>
       </c>
       <c r="H6" s="6">
-        <v>1197</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -673,49 +697,49 @@
         <v>1</v>
       </c>
       <c r="C7" s="3">
-        <v>6500</v>
+        <v>6550</v>
       </c>
       <c r="D7" s="3">
-        <f t="shared" si="1"/>
-        <v>100</v>
+        <f t="shared" si="2"/>
+        <v>50</v>
       </c>
       <c r="E7" s="9">
         <v>2.5499999999999998</v>
       </c>
       <c r="F7" s="6">
-        <f t="shared" si="0"/>
-        <v>254.99999999999997</v>
+        <f t="shared" si="1"/>
+        <v>127.49999999999999</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
-        <v>44207</v>
+        <v>44238</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="3">
-        <v>13800</v>
+        <v>14000</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" si="1"/>
-        <v>300</v>
+        <f t="shared" si="2"/>
+        <v>200</v>
       </c>
       <c r="E8" s="8">
         <v>4.71</v>
       </c>
       <c r="F8" s="6">
-        <f t="shared" si="0"/>
-        <v>1413</v>
+        <f t="shared" si="1"/>
+        <v>942</v>
       </c>
       <c r="G8" s="6">
         <f>SUM(F8,F9)</f>
-        <v>2050.5</v>
+        <v>1197</v>
       </c>
       <c r="H8" s="6">
-        <v>2050.5</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -724,49 +748,49 @@
         <v>1</v>
       </c>
       <c r="C9" s="3">
-        <v>6400</v>
+        <v>6500</v>
       </c>
       <c r="D9" s="3">
-        <f t="shared" si="1"/>
-        <v>250</v>
+        <f t="shared" si="2"/>
+        <v>100</v>
       </c>
       <c r="E9" s="9">
         <v>2.5499999999999998</v>
       </c>
       <c r="F9" s="6">
-        <f t="shared" si="0"/>
-        <v>637.5</v>
+        <f t="shared" si="1"/>
+        <v>254.99999999999997</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
-        <v>44173</v>
+        <v>44207</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="3">
-        <v>13500</v>
+        <v>13800</v>
       </c>
       <c r="D10" s="3">
-        <f t="shared" si="1"/>
-        <v>250</v>
+        <f t="shared" si="2"/>
+        <v>300</v>
       </c>
       <c r="E10" s="8">
         <v>4.71</v>
       </c>
       <c r="F10" s="6">
-        <f t="shared" si="0"/>
-        <v>1177.5</v>
+        <f t="shared" si="1"/>
+        <v>1413</v>
       </c>
       <c r="G10" s="6">
         <f>SUM(F10,F11)</f>
-        <v>1662</v>
+        <v>2050.5</v>
       </c>
       <c r="H10" s="6">
-        <v>1662</v>
+        <v>2050.5</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -775,49 +799,49 @@
         <v>1</v>
       </c>
       <c r="C11" s="3">
-        <v>6150</v>
+        <v>6400</v>
       </c>
       <c r="D11" s="3">
-        <f t="shared" si="1"/>
-        <v>190</v>
+        <f t="shared" si="2"/>
+        <v>250</v>
       </c>
       <c r="E11" s="9">
         <v>2.5499999999999998</v>
       </c>
       <c r="F11" s="6">
-        <f t="shared" si="0"/>
-        <v>484.49999999999994</v>
+        <f t="shared" si="1"/>
+        <v>637.5</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
-        <v>44140</v>
+        <v>44173</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="3">
-        <v>13250</v>
+        <v>13500</v>
       </c>
       <c r="D12" s="3">
-        <f t="shared" si="1"/>
-        <v>280</v>
+        <f t="shared" si="2"/>
+        <v>250</v>
       </c>
       <c r="E12" s="8">
         <v>4.71</v>
       </c>
       <c r="F12" s="6">
-        <f t="shared" si="0"/>
-        <v>1318.8</v>
+        <f t="shared" si="1"/>
+        <v>1177.5</v>
       </c>
       <c r="G12" s="6">
         <f>SUM(F12,F13)</f>
-        <v>1446.3</v>
+        <v>1662</v>
       </c>
       <c r="H12" s="6">
-        <v>1446.3</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -826,49 +850,49 @@
         <v>1</v>
       </c>
       <c r="C13" s="3">
-        <v>5960</v>
+        <v>6150</v>
       </c>
       <c r="D13" s="3">
-        <f t="shared" si="1"/>
-        <v>50</v>
+        <f t="shared" si="2"/>
+        <v>190</v>
       </c>
       <c r="E13" s="9">
         <v>2.5499999999999998</v>
       </c>
       <c r="F13" s="6">
-        <f t="shared" si="0"/>
-        <v>127.49999999999999</v>
+        <f t="shared" si="1"/>
+        <v>484.49999999999994</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
-        <v>44090</v>
+        <v>44140</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="3">
-        <v>12970</v>
+        <v>13250</v>
       </c>
       <c r="D14" s="3">
-        <f t="shared" si="1"/>
-        <v>240</v>
+        <f t="shared" si="2"/>
+        <v>280</v>
       </c>
       <c r="E14" s="8">
         <v>4.71</v>
       </c>
       <c r="F14" s="6">
-        <f t="shared" si="0"/>
-        <v>1130.4000000000001</v>
+        <f t="shared" si="1"/>
+        <v>1318.8</v>
       </c>
       <c r="G14" s="6">
         <f>SUM(F14,F15)</f>
-        <v>1334.4</v>
+        <v>1446.3</v>
       </c>
       <c r="H14" s="6">
-        <v>1334.4</v>
+        <v>1446.3</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -877,49 +901,49 @@
         <v>1</v>
       </c>
       <c r="C15" s="3">
-        <v>5910</v>
+        <v>5960</v>
       </c>
       <c r="D15" s="3">
-        <f t="shared" si="1"/>
-        <v>80</v>
+        <f t="shared" si="2"/>
+        <v>50</v>
       </c>
       <c r="E15" s="9">
         <v>2.5499999999999998</v>
       </c>
       <c r="F15" s="6">
-        <f t="shared" si="0"/>
-        <v>204</v>
+        <f t="shared" si="1"/>
+        <v>127.49999999999999</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
-        <v>44053</v>
+        <v>44090</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="3">
-        <v>12730</v>
+        <v>12970</v>
       </c>
       <c r="D16" s="3">
-        <f t="shared" si="1"/>
-        <v>185</v>
+        <f t="shared" si="2"/>
+        <v>240</v>
       </c>
       <c r="E16" s="8">
         <v>4.71</v>
       </c>
       <c r="F16" s="6">
-        <f t="shared" si="0"/>
-        <v>871.35</v>
+        <f t="shared" si="1"/>
+        <v>1130.4000000000001</v>
       </c>
       <c r="G16" s="6">
         <f>SUM(F16,F17)</f>
-        <v>1016.7</v>
+        <v>1334.4</v>
       </c>
       <c r="H16" s="6">
-        <v>1016.7</v>
+        <v>1334.4</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -928,49 +952,49 @@
         <v>1</v>
       </c>
       <c r="C17" s="3">
-        <v>5830</v>
+        <v>5910</v>
       </c>
       <c r="D17" s="3">
-        <f t="shared" si="1"/>
-        <v>57</v>
+        <f t="shared" si="2"/>
+        <v>80</v>
       </c>
       <c r="E17" s="9">
         <v>2.5499999999999998</v>
       </c>
       <c r="F17" s="6">
-        <f t="shared" si="0"/>
-        <v>145.35</v>
+        <f t="shared" si="1"/>
+        <v>204</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
-        <v>44005</v>
+        <v>44053</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C18" s="3">
-        <v>12545</v>
+        <v>12730</v>
       </c>
       <c r="D18" s="3">
-        <f t="shared" si="1"/>
-        <v>310</v>
+        <f t="shared" si="2"/>
+        <v>185</v>
       </c>
       <c r="E18" s="8">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F18" s="6">
-        <f t="shared" si="0"/>
-        <v>1391.9</v>
+        <f t="shared" si="1"/>
+        <v>871.35</v>
       </c>
       <c r="G18" s="6">
         <f>SUM(F18,F19)</f>
-        <v>1666.4900000000002</v>
+        <v>1016.7</v>
       </c>
       <c r="H18" s="6">
-        <v>1666.49</v>
+        <v>1016.7</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -979,49 +1003,49 @@
         <v>1</v>
       </c>
       <c r="C19" s="3">
-        <v>5773</v>
+        <v>5830</v>
       </c>
       <c r="D19" s="3">
-        <f t="shared" si="1"/>
-        <v>113</v>
+        <f t="shared" si="2"/>
+        <v>57</v>
       </c>
       <c r="E19" s="9">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F19" s="6">
-        <f t="shared" si="0"/>
-        <v>274.59000000000003</v>
+        <f t="shared" si="1"/>
+        <v>145.35</v>
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
-        <v>43980</v>
+        <v>44005</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C20" s="3">
-        <v>12235</v>
+        <v>12545</v>
       </c>
       <c r="D20" s="3">
-        <f t="shared" si="1"/>
-        <v>549</v>
+        <f t="shared" si="2"/>
+        <v>310</v>
       </c>
       <c r="E20" s="8">
         <v>4.49</v>
       </c>
       <c r="F20" s="6">
-        <f t="shared" si="0"/>
-        <v>2465.0100000000002</v>
+        <f t="shared" si="1"/>
+        <v>1391.9</v>
       </c>
       <c r="G20" s="6">
         <f>SUM(F20,F21)</f>
-        <v>2902.4100000000003</v>
+        <v>1666.4900000000002</v>
       </c>
       <c r="H20" s="6">
-        <v>2902.41</v>
+        <v>1666.49</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1030,49 +1054,49 @@
         <v>1</v>
       </c>
       <c r="C21" s="3">
-        <v>5660</v>
+        <v>5773</v>
       </c>
       <c r="D21" s="3">
-        <f t="shared" si="1"/>
-        <v>180</v>
+        <f t="shared" si="2"/>
+        <v>113</v>
       </c>
       <c r="E21" s="9">
         <v>2.4300000000000002</v>
       </c>
       <c r="F21" s="6">
-        <f t="shared" si="0"/>
-        <v>437.40000000000003</v>
+        <f t="shared" si="1"/>
+        <v>274.59000000000003</v>
       </c>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
-        <v>43934</v>
+        <v>43980</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C22" s="3">
-        <v>11686</v>
+        <v>12235</v>
       </c>
       <c r="D22" s="3">
-        <f>SUM(C22,-C24)</f>
-        <v>306</v>
+        <f t="shared" si="2"/>
+        <v>549</v>
       </c>
       <c r="E22" s="8">
         <v>4.49</v>
       </c>
       <c r="F22" s="6">
-        <f t="shared" si="0"/>
-        <v>1373.94</v>
+        <f t="shared" si="1"/>
+        <v>2465.0100000000002</v>
       </c>
       <c r="G22" s="6">
         <f>SUM(F22,F23)</f>
-        <v>1616.94</v>
+        <v>2902.4100000000003</v>
       </c>
       <c r="H22" s="6">
-        <v>1616.94</v>
+        <v>2902.41</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1081,49 +1105,49 @@
         <v>1</v>
       </c>
       <c r="C23" s="3">
-        <v>5480</v>
+        <v>5660</v>
       </c>
       <c r="D23" s="3">
-        <f>SUM(C23,-C25)</f>
-        <v>100</v>
+        <f t="shared" si="2"/>
+        <v>180</v>
       </c>
       <c r="E23" s="9">
         <v>2.4300000000000002</v>
       </c>
       <c r="F23" s="6">
-        <f t="shared" si="0"/>
-        <v>243.00000000000003</v>
+        <f t="shared" si="1"/>
+        <v>437.40000000000003</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
-        <v>43915</v>
+        <v>43934</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C24" s="3">
-        <v>11380</v>
+        <v>11686</v>
       </c>
       <c r="D24" s="3">
-        <f>SUM(C24,-C26)</f>
-        <v>172</v>
+        <f t="shared" ref="D24:D29" si="3">SUM(C24,-C26)</f>
+        <v>306</v>
       </c>
       <c r="E24" s="8">
         <v>4.49</v>
       </c>
       <c r="F24" s="6">
-        <f t="shared" si="0"/>
-        <v>772.28000000000009</v>
+        <f t="shared" si="1"/>
+        <v>1373.94</v>
       </c>
       <c r="G24" s="6">
         <f>SUM(F24,F25)</f>
-        <v>1027.43</v>
+        <v>1616.94</v>
       </c>
       <c r="H24" s="6">
-        <v>1027.43</v>
+        <v>1616.94</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1132,49 +1156,49 @@
         <v>1</v>
       </c>
       <c r="C25" s="3">
-        <v>5380</v>
+        <v>5480</v>
       </c>
       <c r="D25" s="3">
-        <f>SUM(C25,-C27)</f>
-        <v>105</v>
+        <f t="shared" si="3"/>
+        <v>100</v>
       </c>
       <c r="E25" s="9">
         <v>2.4300000000000002</v>
       </c>
       <c r="F25" s="6">
-        <f t="shared" si="0"/>
-        <v>255.15</v>
+        <f t="shared" si="1"/>
+        <v>243.00000000000003</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="10">
-        <v>43830</v>
+        <v>43915</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C26" s="3">
-        <v>11208</v>
+        <v>11380</v>
       </c>
       <c r="D26" s="3">
-        <f>SUM(C26,-C28)</f>
-        <v>566</v>
+        <f t="shared" si="3"/>
+        <v>172</v>
       </c>
       <c r="E26" s="8">
         <v>4.49</v>
       </c>
       <c r="F26" s="6">
-        <f t="shared" si="0"/>
-        <v>2541.34</v>
+        <f t="shared" si="1"/>
+        <v>772.28000000000009</v>
       </c>
       <c r="G26" s="6">
         <f>SUM(F26,F27)</f>
-        <v>3209.59</v>
+        <v>1027.43</v>
       </c>
       <c r="H26" s="6">
-        <v>3209.59</v>
+        <v>1027.43</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1183,37 +1207,50 @@
         <v>1</v>
       </c>
       <c r="C27" s="3">
-        <v>5275</v>
+        <v>5380</v>
       </c>
       <c r="D27" s="3">
-        <f>SUM(C27,-C29)</f>
-        <v>275</v>
+        <f t="shared" si="3"/>
+        <v>105</v>
       </c>
       <c r="E27" s="9">
         <v>2.4300000000000002</v>
       </c>
       <c r="F27" s="6">
-        <f t="shared" si="0"/>
-        <v>668.25</v>
+        <f t="shared" si="1"/>
+        <v>255.15</v>
       </c>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="10">
-        <v>43805</v>
+        <v>43830</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C28" s="3">
-        <v>10642</v>
-      </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
+        <v>11208</v>
+      </c>
+      <c r="D28" s="3">
+        <f t="shared" si="3"/>
+        <v>566</v>
+      </c>
+      <c r="E28" s="8">
+        <v>4.49</v>
+      </c>
+      <c r="F28" s="6">
+        <f t="shared" si="1"/>
+        <v>2541.34</v>
+      </c>
+      <c r="G28" s="6">
+        <f>SUM(F28,F29)</f>
+        <v>3209.59</v>
+      </c>
+      <c r="H28" s="6">
+        <v>3209.59</v>
+      </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
@@ -1221,35 +1258,73 @@
         <v>1</v>
       </c>
       <c r="C29" s="3">
-        <v>5000</v>
-      </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="6"/>
+        <v>5275</v>
+      </c>
+      <c r="D29" s="3">
+        <f t="shared" si="3"/>
+        <v>275</v>
+      </c>
+      <c r="E29" s="9">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F29" s="6">
+        <f t="shared" si="1"/>
+        <v>668.25</v>
+      </c>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="3" t="s">
+      <c r="A30" s="10">
+        <v>43805</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="3">
+        <v>10642</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="B31" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>5000</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G30" s="6">
-        <f>SUM(G2:G29)</f>
+      <c r="G32" s="6">
+        <f>SUM(G4:G31)</f>
         <v>21294.26</v>
       </c>
-      <c r="H30" s="6">
-        <f>SUM(H2:H29)</f>
+      <c r="H32" s="6">
+        <f>SUM(H4:H31)</f>
         <v>21294.26</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
+    <row r="33" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/64ee.xlsx
+++ b/sputnik/personal/ee/64ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -514,7 +514,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
@@ -562,13 +562,13 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
-        <v>44340</v>
+        <v>44369</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="13">
-        <v>14550</v>
+        <v>14700</v>
       </c>
       <c r="D2" s="13">
         <f>SUM(C2,-C4)</f>
@@ -583,10 +583,10 @@
       </c>
       <c r="G2" s="15">
         <f>SUM(F2,F3)</f>
-        <v>910.5</v>
+        <v>859.5</v>
       </c>
       <c r="H2" s="15">
-        <v>910.5</v>
+        <v>859.5</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -595,31 +595,31 @@
         <v>1</v>
       </c>
       <c r="C3" s="13">
-        <v>6690</v>
+        <v>6750</v>
       </c>
       <c r="D3" s="13">
         <f>SUM(C3,-C5)</f>
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E3" s="16">
         <v>2.5499999999999998</v>
       </c>
       <c r="F3" s="15">
         <f t="shared" si="0"/>
-        <v>204</v>
+        <v>153</v>
       </c>
       <c r="G3" s="15"/>
       <c r="H3" s="15"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="17">
-        <v>44308</v>
+        <v>44340</v>
       </c>
       <c r="B4" s="18" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="18">
-        <v>14400</v>
+        <v>14550</v>
       </c>
       <c r="D4" s="18">
         <f>SUM(C4,-C6)</f>
@@ -629,15 +629,15 @@
         <v>4.71</v>
       </c>
       <c r="F4" s="20">
-        <f t="shared" ref="F4:F29" si="1">D4*E4</f>
+        <f t="shared" ref="F4:F5" si="1">D4*E4</f>
         <v>706.5</v>
       </c>
       <c r="G4" s="20">
         <f>SUM(F4,F5)</f>
-        <v>859.5</v>
+        <v>910.5</v>
       </c>
       <c r="H4" s="20">
-        <v>859.5</v>
+        <v>910.5</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -646,100 +646,100 @@
         <v>1</v>
       </c>
       <c r="C5" s="18">
-        <v>6610</v>
+        <v>6690</v>
       </c>
       <c r="D5" s="18">
         <f>SUM(C5,-C7)</f>
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="E5" s="22">
         <v>2.5499999999999998</v>
       </c>
       <c r="F5" s="20">
         <f t="shared" si="1"/>
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="20"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
-        <v>44260</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3">
-        <v>14250</v>
-      </c>
-      <c r="D6" s="3">
-        <f t="shared" ref="D6:D23" si="2">SUM(C6,-C8)</f>
-        <v>250</v>
-      </c>
-      <c r="E6" s="8">
+      <c r="A6" s="17">
+        <v>44308</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="18">
+        <v>14400</v>
+      </c>
+      <c r="D6" s="18">
+        <f>SUM(C6,-C8)</f>
+        <v>150</v>
+      </c>
+      <c r="E6" s="19">
         <v>4.71</v>
       </c>
-      <c r="F6" s="6">
-        <f t="shared" si="1"/>
-        <v>1177.5</v>
-      </c>
-      <c r="G6" s="6">
+      <c r="F6" s="20">
+        <f t="shared" ref="F6:F31" si="2">D6*E6</f>
+        <v>706.5</v>
+      </c>
+      <c r="G6" s="20">
         <f>SUM(F6,F7)</f>
-        <v>1305</v>
-      </c>
-      <c r="H6" s="6">
-        <v>1305</v>
+        <v>859.5</v>
+      </c>
+      <c r="H6" s="20">
+        <v>859.5</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="3">
-        <v>6550</v>
-      </c>
-      <c r="D7" s="3">
-        <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-      <c r="E7" s="9">
+      <c r="A7" s="21"/>
+      <c r="B7" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="18">
+        <v>6610</v>
+      </c>
+      <c r="D7" s="18">
+        <f>SUM(C7,-C9)</f>
+        <v>60</v>
+      </c>
+      <c r="E7" s="22">
         <v>2.5499999999999998</v>
       </c>
-      <c r="F7" s="6">
-        <f t="shared" si="1"/>
-        <v>127.49999999999999</v>
-      </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
+      <c r="F7" s="20">
+        <f t="shared" si="2"/>
+        <v>153</v>
+      </c>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
-        <v>44238</v>
+        <v>44260</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="3">
-        <v>14000</v>
+        <v>14250</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" si="2"/>
-        <v>200</v>
+        <f t="shared" ref="D8:D25" si="3">SUM(C8,-C10)</f>
+        <v>250</v>
       </c>
       <c r="E8" s="8">
         <v>4.71</v>
       </c>
       <c r="F8" s="6">
-        <f t="shared" si="1"/>
-        <v>942</v>
+        <f t="shared" si="2"/>
+        <v>1177.5</v>
       </c>
       <c r="G8" s="6">
         <f>SUM(F8,F9)</f>
-        <v>1197</v>
+        <v>1305</v>
       </c>
       <c r="H8" s="6">
-        <v>1197</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -748,49 +748,49 @@
         <v>1</v>
       </c>
       <c r="C9" s="3">
-        <v>6500</v>
+        <v>6550</v>
       </c>
       <c r="D9" s="3">
-        <f t="shared" si="2"/>
-        <v>100</v>
+        <f t="shared" si="3"/>
+        <v>50</v>
       </c>
       <c r="E9" s="9">
         <v>2.5499999999999998</v>
       </c>
       <c r="F9" s="6">
-        <f t="shared" si="1"/>
-        <v>254.99999999999997</v>
+        <f t="shared" si="2"/>
+        <v>127.49999999999999</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
-        <v>44207</v>
+        <v>44238</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="3">
-        <v>13800</v>
+        <v>14000</v>
       </c>
       <c r="D10" s="3">
-        <f t="shared" si="2"/>
-        <v>300</v>
+        <f t="shared" si="3"/>
+        <v>200</v>
       </c>
       <c r="E10" s="8">
         <v>4.71</v>
       </c>
       <c r="F10" s="6">
-        <f t="shared" si="1"/>
-        <v>1413</v>
+        <f t="shared" si="2"/>
+        <v>942</v>
       </c>
       <c r="G10" s="6">
         <f>SUM(F10,F11)</f>
-        <v>2050.5</v>
+        <v>1197</v>
       </c>
       <c r="H10" s="6">
-        <v>2050.5</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -799,49 +799,49 @@
         <v>1</v>
       </c>
       <c r="C11" s="3">
-        <v>6400</v>
+        <v>6500</v>
       </c>
       <c r="D11" s="3">
-        <f t="shared" si="2"/>
-        <v>250</v>
+        <f t="shared" si="3"/>
+        <v>100</v>
       </c>
       <c r="E11" s="9">
         <v>2.5499999999999998</v>
       </c>
       <c r="F11" s="6">
-        <f t="shared" si="1"/>
-        <v>637.5</v>
+        <f t="shared" si="2"/>
+        <v>254.99999999999997</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
-        <v>44173</v>
+        <v>44207</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="3">
-        <v>13500</v>
+        <v>13800</v>
       </c>
       <c r="D12" s="3">
-        <f t="shared" si="2"/>
-        <v>250</v>
+        <f t="shared" si="3"/>
+        <v>300</v>
       </c>
       <c r="E12" s="8">
         <v>4.71</v>
       </c>
       <c r="F12" s="6">
-        <f t="shared" si="1"/>
-        <v>1177.5</v>
+        <f t="shared" si="2"/>
+        <v>1413</v>
       </c>
       <c r="G12" s="6">
         <f>SUM(F12,F13)</f>
-        <v>1662</v>
+        <v>2050.5</v>
       </c>
       <c r="H12" s="6">
-        <v>1662</v>
+        <v>2050.5</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -850,49 +850,49 @@
         <v>1</v>
       </c>
       <c r="C13" s="3">
-        <v>6150</v>
+        <v>6400</v>
       </c>
       <c r="D13" s="3">
-        <f t="shared" si="2"/>
-        <v>190</v>
+        <f t="shared" si="3"/>
+        <v>250</v>
       </c>
       <c r="E13" s="9">
         <v>2.5499999999999998</v>
       </c>
       <c r="F13" s="6">
-        <f t="shared" si="1"/>
-        <v>484.49999999999994</v>
+        <f t="shared" si="2"/>
+        <v>637.5</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
-        <v>44140</v>
+        <v>44173</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="3">
-        <v>13250</v>
+        <v>13500</v>
       </c>
       <c r="D14" s="3">
-        <f t="shared" si="2"/>
-        <v>280</v>
+        <f t="shared" si="3"/>
+        <v>250</v>
       </c>
       <c r="E14" s="8">
         <v>4.71</v>
       </c>
       <c r="F14" s="6">
-        <f t="shared" si="1"/>
-        <v>1318.8</v>
+        <f t="shared" si="2"/>
+        <v>1177.5</v>
       </c>
       <c r="G14" s="6">
         <f>SUM(F14,F15)</f>
-        <v>1446.3</v>
+        <v>1662</v>
       </c>
       <c r="H14" s="6">
-        <v>1446.3</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -901,49 +901,49 @@
         <v>1</v>
       </c>
       <c r="C15" s="3">
-        <v>5960</v>
+        <v>6150</v>
       </c>
       <c r="D15" s="3">
-        <f t="shared" si="2"/>
-        <v>50</v>
+        <f t="shared" si="3"/>
+        <v>190</v>
       </c>
       <c r="E15" s="9">
         <v>2.5499999999999998</v>
       </c>
       <c r="F15" s="6">
-        <f t="shared" si="1"/>
-        <v>127.49999999999999</v>
+        <f t="shared" si="2"/>
+        <v>484.49999999999994</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
-        <v>44090</v>
+        <v>44140</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="3">
-        <v>12970</v>
+        <v>13250</v>
       </c>
       <c r="D16" s="3">
-        <f t="shared" si="2"/>
-        <v>240</v>
+        <f t="shared" si="3"/>
+        <v>280</v>
       </c>
       <c r="E16" s="8">
         <v>4.71</v>
       </c>
       <c r="F16" s="6">
-        <f t="shared" si="1"/>
-        <v>1130.4000000000001</v>
+        <f t="shared" si="2"/>
+        <v>1318.8</v>
       </c>
       <c r="G16" s="6">
         <f>SUM(F16,F17)</f>
-        <v>1334.4</v>
+        <v>1446.3</v>
       </c>
       <c r="H16" s="6">
-        <v>1334.4</v>
+        <v>1446.3</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -952,49 +952,49 @@
         <v>1</v>
       </c>
       <c r="C17" s="3">
-        <v>5910</v>
+        <v>5960</v>
       </c>
       <c r="D17" s="3">
-        <f t="shared" si="2"/>
-        <v>80</v>
+        <f t="shared" si="3"/>
+        <v>50</v>
       </c>
       <c r="E17" s="9">
         <v>2.5499999999999998</v>
       </c>
       <c r="F17" s="6">
-        <f t="shared" si="1"/>
-        <v>204</v>
+        <f t="shared" si="2"/>
+        <v>127.49999999999999</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
-        <v>44053</v>
+        <v>44090</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C18" s="3">
-        <v>12730</v>
+        <v>12970</v>
       </c>
       <c r="D18" s="3">
-        <f t="shared" si="2"/>
-        <v>185</v>
+        <f t="shared" si="3"/>
+        <v>240</v>
       </c>
       <c r="E18" s="8">
         <v>4.71</v>
       </c>
       <c r="F18" s="6">
-        <f t="shared" si="1"/>
-        <v>871.35</v>
+        <f t="shared" si="2"/>
+        <v>1130.4000000000001</v>
       </c>
       <c r="G18" s="6">
         <f>SUM(F18,F19)</f>
-        <v>1016.7</v>
+        <v>1334.4</v>
       </c>
       <c r="H18" s="6">
-        <v>1016.7</v>
+        <v>1334.4</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1003,49 +1003,49 @@
         <v>1</v>
       </c>
       <c r="C19" s="3">
-        <v>5830</v>
+        <v>5910</v>
       </c>
       <c r="D19" s="3">
-        <f t="shared" si="2"/>
-        <v>57</v>
+        <f t="shared" si="3"/>
+        <v>80</v>
       </c>
       <c r="E19" s="9">
         <v>2.5499999999999998</v>
       </c>
       <c r="F19" s="6">
-        <f t="shared" si="1"/>
-        <v>145.35</v>
+        <f t="shared" si="2"/>
+        <v>204</v>
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
-        <v>44005</v>
+        <v>44053</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C20" s="3">
-        <v>12545</v>
+        <v>12730</v>
       </c>
       <c r="D20" s="3">
-        <f t="shared" si="2"/>
-        <v>310</v>
+        <f t="shared" si="3"/>
+        <v>185</v>
       </c>
       <c r="E20" s="8">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F20" s="6">
-        <f t="shared" si="1"/>
-        <v>1391.9</v>
+        <f t="shared" si="2"/>
+        <v>871.35</v>
       </c>
       <c r="G20" s="6">
         <f>SUM(F20,F21)</f>
-        <v>1666.4900000000002</v>
+        <v>1016.7</v>
       </c>
       <c r="H20" s="6">
-        <v>1666.49</v>
+        <v>1016.7</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1054,49 +1054,49 @@
         <v>1</v>
       </c>
       <c r="C21" s="3">
-        <v>5773</v>
+        <v>5830</v>
       </c>
       <c r="D21" s="3">
-        <f t="shared" si="2"/>
-        <v>113</v>
+        <f t="shared" si="3"/>
+        <v>57</v>
       </c>
       <c r="E21" s="9">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F21" s="6">
-        <f t="shared" si="1"/>
-        <v>274.59000000000003</v>
+        <f t="shared" si="2"/>
+        <v>145.35</v>
       </c>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
-        <v>43980</v>
+        <v>44005</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C22" s="3">
-        <v>12235</v>
+        <v>12545</v>
       </c>
       <c r="D22" s="3">
-        <f t="shared" si="2"/>
-        <v>549</v>
+        <f t="shared" si="3"/>
+        <v>310</v>
       </c>
       <c r="E22" s="8">
         <v>4.49</v>
       </c>
       <c r="F22" s="6">
-        <f t="shared" si="1"/>
-        <v>2465.0100000000002</v>
+        <f t="shared" si="2"/>
+        <v>1391.9</v>
       </c>
       <c r="G22" s="6">
         <f>SUM(F22,F23)</f>
-        <v>2902.4100000000003</v>
+        <v>1666.4900000000002</v>
       </c>
       <c r="H22" s="6">
-        <v>2902.41</v>
+        <v>1666.49</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1105,49 +1105,49 @@
         <v>1</v>
       </c>
       <c r="C23" s="3">
-        <v>5660</v>
+        <v>5773</v>
       </c>
       <c r="D23" s="3">
-        <f t="shared" si="2"/>
-        <v>180</v>
+        <f t="shared" si="3"/>
+        <v>113</v>
       </c>
       <c r="E23" s="9">
         <v>2.4300000000000002</v>
       </c>
       <c r="F23" s="6">
-        <f t="shared" si="1"/>
-        <v>437.40000000000003</v>
+        <f t="shared" si="2"/>
+        <v>274.59000000000003</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
-        <v>43934</v>
+        <v>43980</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C24" s="3">
-        <v>11686</v>
+        <v>12235</v>
       </c>
       <c r="D24" s="3">
-        <f t="shared" ref="D24:D29" si="3">SUM(C24,-C26)</f>
-        <v>306</v>
+        <f t="shared" si="3"/>
+        <v>549</v>
       </c>
       <c r="E24" s="8">
         <v>4.49</v>
       </c>
       <c r="F24" s="6">
-        <f t="shared" si="1"/>
-        <v>1373.94</v>
+        <f t="shared" si="2"/>
+        <v>2465.0100000000002</v>
       </c>
       <c r="G24" s="6">
         <f>SUM(F24,F25)</f>
-        <v>1616.94</v>
+        <v>2902.4100000000003</v>
       </c>
       <c r="H24" s="6">
-        <v>1616.94</v>
+        <v>2902.41</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1156,49 +1156,49 @@
         <v>1</v>
       </c>
       <c r="C25" s="3">
-        <v>5480</v>
+        <v>5660</v>
       </c>
       <c r="D25" s="3">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="E25" s="9">
         <v>2.4300000000000002</v>
       </c>
       <c r="F25" s="6">
-        <f t="shared" si="1"/>
-        <v>243.00000000000003</v>
+        <f t="shared" si="2"/>
+        <v>437.40000000000003</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="10">
-        <v>43915</v>
+        <v>43934</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C26" s="3">
-        <v>11380</v>
+        <v>11686</v>
       </c>
       <c r="D26" s="3">
-        <f t="shared" si="3"/>
-        <v>172</v>
+        <f t="shared" ref="D26:D31" si="4">SUM(C26,-C28)</f>
+        <v>306</v>
       </c>
       <c r="E26" s="8">
         <v>4.49</v>
       </c>
       <c r="F26" s="6">
-        <f t="shared" si="1"/>
-        <v>772.28000000000009</v>
+        <f t="shared" si="2"/>
+        <v>1373.94</v>
       </c>
       <c r="G26" s="6">
         <f>SUM(F26,F27)</f>
-        <v>1027.43</v>
+        <v>1616.94</v>
       </c>
       <c r="H26" s="6">
-        <v>1027.43</v>
+        <v>1616.94</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1207,49 +1207,49 @@
         <v>1</v>
       </c>
       <c r="C27" s="3">
-        <v>5380</v>
+        <v>5480</v>
       </c>
       <c r="D27" s="3">
-        <f t="shared" si="3"/>
-        <v>105</v>
+        <f t="shared" si="4"/>
+        <v>100</v>
       </c>
       <c r="E27" s="9">
         <v>2.4300000000000002</v>
       </c>
       <c r="F27" s="6">
-        <f t="shared" si="1"/>
-        <v>255.15</v>
+        <f t="shared" si="2"/>
+        <v>243.00000000000003</v>
       </c>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="10">
-        <v>43830</v>
+        <v>43915</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C28" s="3">
-        <v>11208</v>
+        <v>11380</v>
       </c>
       <c r="D28" s="3">
-        <f t="shared" si="3"/>
-        <v>566</v>
+        <f t="shared" si="4"/>
+        <v>172</v>
       </c>
       <c r="E28" s="8">
         <v>4.49</v>
       </c>
       <c r="F28" s="6">
-        <f t="shared" si="1"/>
-        <v>2541.34</v>
+        <f t="shared" si="2"/>
+        <v>772.28000000000009</v>
       </c>
       <c r="G28" s="6">
         <f>SUM(F28,F29)</f>
-        <v>3209.59</v>
+        <v>1027.43</v>
       </c>
       <c r="H28" s="6">
-        <v>3209.59</v>
+        <v>1027.43</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1258,37 +1258,50 @@
         <v>1</v>
       </c>
       <c r="C29" s="3">
-        <v>5275</v>
+        <v>5380</v>
       </c>
       <c r="D29" s="3">
-        <f t="shared" si="3"/>
-        <v>275</v>
+        <f t="shared" si="4"/>
+        <v>105</v>
       </c>
       <c r="E29" s="9">
         <v>2.4300000000000002</v>
       </c>
       <c r="F29" s="6">
-        <f t="shared" si="1"/>
-        <v>668.25</v>
+        <f t="shared" si="2"/>
+        <v>255.15</v>
       </c>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="10">
-        <v>43805</v>
+        <v>43830</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C30" s="3">
-        <v>10642</v>
-      </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
+        <v>11208</v>
+      </c>
+      <c r="D30" s="3">
+        <f t="shared" si="4"/>
+        <v>566</v>
+      </c>
+      <c r="E30" s="8">
+        <v>4.49</v>
+      </c>
+      <c r="F30" s="6">
+        <f t="shared" si="2"/>
+        <v>2541.34</v>
+      </c>
+      <c r="G30" s="6">
+        <f>SUM(F30,F31)</f>
+        <v>3209.59</v>
+      </c>
+      <c r="H30" s="6">
+        <v>3209.59</v>
+      </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
@@ -1296,35 +1309,73 @@
         <v>1</v>
       </c>
       <c r="C31" s="3">
-        <v>5000</v>
-      </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="6"/>
+        <v>5275</v>
+      </c>
+      <c r="D31" s="3">
+        <f t="shared" si="4"/>
+        <v>275</v>
+      </c>
+      <c r="E31" s="9">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F31" s="6">
+        <f t="shared" si="2"/>
+        <v>668.25</v>
+      </c>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="3" t="s">
+      <c r="A32" s="10">
+        <v>43805</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="3">
+        <v>10642</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="B33" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="3">
+        <v>5000</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G32" s="6">
-        <f>SUM(G4:G31)</f>
+      <c r="G34" s="6">
+        <f>SUM(G6:G33)</f>
         <v>21294.26</v>
       </c>
-      <c r="H32" s="6">
-        <f>SUM(H4:H31)</f>
+      <c r="H34" s="6">
+        <f>SUM(H6:H33)</f>
         <v>21294.26</v>
       </c>
     </row>
-    <row r="33" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/64ee.xlsx
+++ b/sputnik/personal/ee/64ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -514,7 +514,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
@@ -562,31 +562,31 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
-        <v>44369</v>
+        <v>44406</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="13">
-        <v>14700</v>
+        <v>14800</v>
       </c>
       <c r="D2" s="13">
-        <f>SUM(C2,-C4)</f>
-        <v>150</v>
+        <f t="shared" ref="D2:D9" si="0">SUM(C2,-C4)</f>
+        <v>100</v>
       </c>
       <c r="E2" s="14">
-        <v>4.71</v>
+        <v>4.96</v>
       </c>
       <c r="F2" s="15">
-        <f t="shared" ref="F2:F3" si="0">D2*E2</f>
-        <v>706.5</v>
+        <f t="shared" ref="F2:F3" si="1">D2*E2</f>
+        <v>496</v>
       </c>
       <c r="G2" s="15">
         <f>SUM(F2,F3)</f>
-        <v>859.5</v>
+        <v>576.4</v>
       </c>
       <c r="H2" s="15">
-        <v>859.5</v>
+        <v>576.4</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -595,49 +595,49 @@
         <v>1</v>
       </c>
       <c r="C3" s="13">
-        <v>6750</v>
+        <v>6780</v>
       </c>
       <c r="D3" s="13">
-        <f>SUM(C3,-C5)</f>
-        <v>60</v>
+        <f t="shared" si="0"/>
+        <v>30</v>
       </c>
       <c r="E3" s="16">
-        <v>2.5499999999999998</v>
+        <v>2.68</v>
       </c>
       <c r="F3" s="15">
-        <f t="shared" si="0"/>
-        <v>153</v>
+        <f t="shared" si="1"/>
+        <v>80.400000000000006</v>
       </c>
       <c r="G3" s="15"/>
       <c r="H3" s="15"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="17">
-        <v>44340</v>
+        <v>44369</v>
       </c>
       <c r="B4" s="18" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="18">
-        <v>14550</v>
+        <v>14700</v>
       </c>
       <c r="D4" s="18">
-        <f>SUM(C4,-C6)</f>
+        <f t="shared" si="0"/>
         <v>150</v>
       </c>
       <c r="E4" s="19">
         <v>4.71</v>
       </c>
       <c r="F4" s="20">
-        <f t="shared" ref="F4:F5" si="1">D4*E4</f>
+        <f t="shared" ref="F4:F5" si="2">D4*E4</f>
         <v>706.5</v>
       </c>
       <c r="G4" s="20">
         <f>SUM(F4,F5)</f>
-        <v>910.5</v>
+        <v>859.5</v>
       </c>
       <c r="H4" s="20">
-        <v>910.5</v>
+        <v>859.5</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -646,49 +646,49 @@
         <v>1</v>
       </c>
       <c r="C5" s="18">
-        <v>6690</v>
+        <v>6750</v>
       </c>
       <c r="D5" s="18">
-        <f>SUM(C5,-C7)</f>
-        <v>80</v>
+        <f t="shared" si="0"/>
+        <v>60</v>
       </c>
       <c r="E5" s="22">
         <v>2.5499999999999998</v>
       </c>
       <c r="F5" s="20">
-        <f t="shared" si="1"/>
-        <v>204</v>
+        <f t="shared" si="2"/>
+        <v>153</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="20"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="17">
-        <v>44308</v>
+        <v>44340</v>
       </c>
       <c r="B6" s="18" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="18">
-        <v>14400</v>
+        <v>14550</v>
       </c>
       <c r="D6" s="18">
-        <f>SUM(C6,-C8)</f>
+        <f t="shared" si="0"/>
         <v>150</v>
       </c>
       <c r="E6" s="19">
         <v>4.71</v>
       </c>
       <c r="F6" s="20">
-        <f t="shared" ref="F6:F31" si="2">D6*E6</f>
+        <f t="shared" ref="F6:F7" si="3">D6*E6</f>
         <v>706.5</v>
       </c>
       <c r="G6" s="20">
         <f>SUM(F6,F7)</f>
-        <v>859.5</v>
+        <v>910.5</v>
       </c>
       <c r="H6" s="20">
-        <v>859.5</v>
+        <v>910.5</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -697,100 +697,100 @@
         <v>1</v>
       </c>
       <c r="C7" s="18">
-        <v>6610</v>
+        <v>6690</v>
       </c>
       <c r="D7" s="18">
-        <f>SUM(C7,-C9)</f>
-        <v>60</v>
+        <f t="shared" si="0"/>
+        <v>80</v>
       </c>
       <c r="E7" s="22">
         <v>2.5499999999999998</v>
       </c>
       <c r="F7" s="20">
-        <f t="shared" si="2"/>
-        <v>153</v>
+        <f t="shared" si="3"/>
+        <v>204</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="20"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
-        <v>44260</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="3">
-        <v>14250</v>
-      </c>
-      <c r="D8" s="3">
-        <f t="shared" ref="D8:D25" si="3">SUM(C8,-C10)</f>
-        <v>250</v>
-      </c>
-      <c r="E8" s="8">
+      <c r="A8" s="17">
+        <v>44308</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="18">
+        <v>14400</v>
+      </c>
+      <c r="D8" s="18">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="E8" s="19">
         <v>4.71</v>
       </c>
-      <c r="F8" s="6">
-        <f t="shared" si="2"/>
-        <v>1177.5</v>
-      </c>
-      <c r="G8" s="6">
+      <c r="F8" s="20">
+        <f t="shared" ref="F8:F33" si="4">D8*E8</f>
+        <v>706.5</v>
+      </c>
+      <c r="G8" s="20">
         <f>SUM(F8,F9)</f>
-        <v>1305</v>
-      </c>
-      <c r="H8" s="6">
-        <v>1305</v>
+        <v>859.5</v>
+      </c>
+      <c r="H8" s="20">
+        <v>859.5</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="3">
-        <v>6550</v>
-      </c>
-      <c r="D9" s="3">
-        <f t="shared" si="3"/>
-        <v>50</v>
-      </c>
-      <c r="E9" s="9">
+      <c r="A9" s="21"/>
+      <c r="B9" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="18">
+        <v>6610</v>
+      </c>
+      <c r="D9" s="18">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="E9" s="22">
         <v>2.5499999999999998</v>
       </c>
-      <c r="F9" s="6">
-        <f t="shared" si="2"/>
-        <v>127.49999999999999</v>
-      </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
+      <c r="F9" s="20">
+        <f t="shared" si="4"/>
+        <v>153</v>
+      </c>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
-        <v>44238</v>
+        <v>44260</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="3">
-        <v>14000</v>
+        <v>14250</v>
       </c>
       <c r="D10" s="3">
-        <f t="shared" si="3"/>
-        <v>200</v>
+        <f t="shared" ref="D10:D27" si="5">SUM(C10,-C12)</f>
+        <v>250</v>
       </c>
       <c r="E10" s="8">
         <v>4.71</v>
       </c>
       <c r="F10" s="6">
-        <f t="shared" si="2"/>
-        <v>942</v>
+        <f t="shared" si="4"/>
+        <v>1177.5</v>
       </c>
       <c r="G10" s="6">
         <f>SUM(F10,F11)</f>
-        <v>1197</v>
+        <v>1305</v>
       </c>
       <c r="H10" s="6">
-        <v>1197</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -799,49 +799,49 @@
         <v>1</v>
       </c>
       <c r="C11" s="3">
-        <v>6500</v>
+        <v>6550</v>
       </c>
       <c r="D11" s="3">
-        <f t="shared" si="3"/>
-        <v>100</v>
+        <f t="shared" si="5"/>
+        <v>50</v>
       </c>
       <c r="E11" s="9">
         <v>2.5499999999999998</v>
       </c>
       <c r="F11" s="6">
-        <f t="shared" si="2"/>
-        <v>254.99999999999997</v>
+        <f t="shared" si="4"/>
+        <v>127.49999999999999</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
-        <v>44207</v>
+        <v>44238</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="3">
-        <v>13800</v>
+        <v>14000</v>
       </c>
       <c r="D12" s="3">
-        <f t="shared" si="3"/>
-        <v>300</v>
+        <f t="shared" si="5"/>
+        <v>200</v>
       </c>
       <c r="E12" s="8">
         <v>4.71</v>
       </c>
       <c r="F12" s="6">
-        <f t="shared" si="2"/>
-        <v>1413</v>
+        <f t="shared" si="4"/>
+        <v>942</v>
       </c>
       <c r="G12" s="6">
         <f>SUM(F12,F13)</f>
-        <v>2050.5</v>
+        <v>1197</v>
       </c>
       <c r="H12" s="6">
-        <v>2050.5</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -850,49 +850,49 @@
         <v>1</v>
       </c>
       <c r="C13" s="3">
-        <v>6400</v>
+        <v>6500</v>
       </c>
       <c r="D13" s="3">
-        <f t="shared" si="3"/>
-        <v>250</v>
+        <f t="shared" si="5"/>
+        <v>100</v>
       </c>
       <c r="E13" s="9">
         <v>2.5499999999999998</v>
       </c>
       <c r="F13" s="6">
-        <f t="shared" si="2"/>
-        <v>637.5</v>
+        <f t="shared" si="4"/>
+        <v>254.99999999999997</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
-        <v>44173</v>
+        <v>44207</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="3">
-        <v>13500</v>
+        <v>13800</v>
       </c>
       <c r="D14" s="3">
-        <f t="shared" si="3"/>
-        <v>250</v>
+        <f t="shared" si="5"/>
+        <v>300</v>
       </c>
       <c r="E14" s="8">
         <v>4.71</v>
       </c>
       <c r="F14" s="6">
-        <f t="shared" si="2"/>
-        <v>1177.5</v>
+        <f t="shared" si="4"/>
+        <v>1413</v>
       </c>
       <c r="G14" s="6">
         <f>SUM(F14,F15)</f>
-        <v>1662</v>
+        <v>2050.5</v>
       </c>
       <c r="H14" s="6">
-        <v>1662</v>
+        <v>2050.5</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -901,49 +901,49 @@
         <v>1</v>
       </c>
       <c r="C15" s="3">
-        <v>6150</v>
+        <v>6400</v>
       </c>
       <c r="D15" s="3">
-        <f t="shared" si="3"/>
-        <v>190</v>
+        <f t="shared" si="5"/>
+        <v>250</v>
       </c>
       <c r="E15" s="9">
         <v>2.5499999999999998</v>
       </c>
       <c r="F15" s="6">
-        <f t="shared" si="2"/>
-        <v>484.49999999999994</v>
+        <f t="shared" si="4"/>
+        <v>637.5</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
-        <v>44140</v>
+        <v>44173</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="3">
-        <v>13250</v>
+        <v>13500</v>
       </c>
       <c r="D16" s="3">
-        <f t="shared" si="3"/>
-        <v>280</v>
+        <f t="shared" si="5"/>
+        <v>250</v>
       </c>
       <c r="E16" s="8">
         <v>4.71</v>
       </c>
       <c r="F16" s="6">
-        <f t="shared" si="2"/>
-        <v>1318.8</v>
+        <f t="shared" si="4"/>
+        <v>1177.5</v>
       </c>
       <c r="G16" s="6">
         <f>SUM(F16,F17)</f>
-        <v>1446.3</v>
+        <v>1662</v>
       </c>
       <c r="H16" s="6">
-        <v>1446.3</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -952,49 +952,49 @@
         <v>1</v>
       </c>
       <c r="C17" s="3">
-        <v>5960</v>
+        <v>6150</v>
       </c>
       <c r="D17" s="3">
-        <f t="shared" si="3"/>
-        <v>50</v>
+        <f t="shared" si="5"/>
+        <v>190</v>
       </c>
       <c r="E17" s="9">
         <v>2.5499999999999998</v>
       </c>
       <c r="F17" s="6">
-        <f t="shared" si="2"/>
-        <v>127.49999999999999</v>
+        <f t="shared" si="4"/>
+        <v>484.49999999999994</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
-        <v>44090</v>
+        <v>44140</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C18" s="3">
-        <v>12970</v>
+        <v>13250</v>
       </c>
       <c r="D18" s="3">
-        <f t="shared" si="3"/>
-        <v>240</v>
+        <f t="shared" si="5"/>
+        <v>280</v>
       </c>
       <c r="E18" s="8">
         <v>4.71</v>
       </c>
       <c r="F18" s="6">
-        <f t="shared" si="2"/>
-        <v>1130.4000000000001</v>
+        <f t="shared" si="4"/>
+        <v>1318.8</v>
       </c>
       <c r="G18" s="6">
         <f>SUM(F18,F19)</f>
-        <v>1334.4</v>
+        <v>1446.3</v>
       </c>
       <c r="H18" s="6">
-        <v>1334.4</v>
+        <v>1446.3</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1003,49 +1003,49 @@
         <v>1</v>
       </c>
       <c r="C19" s="3">
-        <v>5910</v>
+        <v>5960</v>
       </c>
       <c r="D19" s="3">
-        <f t="shared" si="3"/>
-        <v>80</v>
+        <f t="shared" si="5"/>
+        <v>50</v>
       </c>
       <c r="E19" s="9">
         <v>2.5499999999999998</v>
       </c>
       <c r="F19" s="6">
-        <f t="shared" si="2"/>
-        <v>204</v>
+        <f t="shared" si="4"/>
+        <v>127.49999999999999</v>
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
-        <v>44053</v>
+        <v>44090</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C20" s="3">
-        <v>12730</v>
+        <v>12970</v>
       </c>
       <c r="D20" s="3">
-        <f t="shared" si="3"/>
-        <v>185</v>
+        <f t="shared" si="5"/>
+        <v>240</v>
       </c>
       <c r="E20" s="8">
         <v>4.71</v>
       </c>
       <c r="F20" s="6">
-        <f t="shared" si="2"/>
-        <v>871.35</v>
+        <f t="shared" si="4"/>
+        <v>1130.4000000000001</v>
       </c>
       <c r="G20" s="6">
         <f>SUM(F20,F21)</f>
-        <v>1016.7</v>
+        <v>1334.4</v>
       </c>
       <c r="H20" s="6">
-        <v>1016.7</v>
+        <v>1334.4</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1054,49 +1054,49 @@
         <v>1</v>
       </c>
       <c r="C21" s="3">
-        <v>5830</v>
+        <v>5910</v>
       </c>
       <c r="D21" s="3">
-        <f t="shared" si="3"/>
-        <v>57</v>
+        <f t="shared" si="5"/>
+        <v>80</v>
       </c>
       <c r="E21" s="9">
         <v>2.5499999999999998</v>
       </c>
       <c r="F21" s="6">
-        <f t="shared" si="2"/>
-        <v>145.35</v>
+        <f t="shared" si="4"/>
+        <v>204</v>
       </c>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
-        <v>44005</v>
+        <v>44053</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C22" s="3">
-        <v>12545</v>
+        <v>12730</v>
       </c>
       <c r="D22" s="3">
-        <f t="shared" si="3"/>
-        <v>310</v>
+        <f t="shared" si="5"/>
+        <v>185</v>
       </c>
       <c r="E22" s="8">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F22" s="6">
-        <f t="shared" si="2"/>
-        <v>1391.9</v>
+        <f t="shared" si="4"/>
+        <v>871.35</v>
       </c>
       <c r="G22" s="6">
         <f>SUM(F22,F23)</f>
-        <v>1666.4900000000002</v>
+        <v>1016.7</v>
       </c>
       <c r="H22" s="6">
-        <v>1666.49</v>
+        <v>1016.7</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1105,49 +1105,49 @@
         <v>1</v>
       </c>
       <c r="C23" s="3">
-        <v>5773</v>
+        <v>5830</v>
       </c>
       <c r="D23" s="3">
-        <f t="shared" si="3"/>
-        <v>113</v>
+        <f t="shared" si="5"/>
+        <v>57</v>
       </c>
       <c r="E23" s="9">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F23" s="6">
-        <f t="shared" si="2"/>
-        <v>274.59000000000003</v>
+        <f t="shared" si="4"/>
+        <v>145.35</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
-        <v>43980</v>
+        <v>44005</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C24" s="3">
-        <v>12235</v>
+        <v>12545</v>
       </c>
       <c r="D24" s="3">
-        <f t="shared" si="3"/>
-        <v>549</v>
+        <f t="shared" si="5"/>
+        <v>310</v>
       </c>
       <c r="E24" s="8">
         <v>4.49</v>
       </c>
       <c r="F24" s="6">
-        <f t="shared" si="2"/>
-        <v>2465.0100000000002</v>
+        <f t="shared" si="4"/>
+        <v>1391.9</v>
       </c>
       <c r="G24" s="6">
         <f>SUM(F24,F25)</f>
-        <v>2902.4100000000003</v>
+        <v>1666.4900000000002</v>
       </c>
       <c r="H24" s="6">
-        <v>2902.41</v>
+        <v>1666.49</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1156,49 +1156,49 @@
         <v>1</v>
       </c>
       <c r="C25" s="3">
-        <v>5660</v>
+        <v>5773</v>
       </c>
       <c r="D25" s="3">
-        <f t="shared" si="3"/>
-        <v>180</v>
+        <f t="shared" si="5"/>
+        <v>113</v>
       </c>
       <c r="E25" s="9">
         <v>2.4300000000000002</v>
       </c>
       <c r="F25" s="6">
-        <f t="shared" si="2"/>
-        <v>437.40000000000003</v>
+        <f t="shared" si="4"/>
+        <v>274.59000000000003</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="10">
-        <v>43934</v>
+        <v>43980</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C26" s="3">
-        <v>11686</v>
+        <v>12235</v>
       </c>
       <c r="D26" s="3">
-        <f t="shared" ref="D26:D31" si="4">SUM(C26,-C28)</f>
-        <v>306</v>
+        <f t="shared" si="5"/>
+        <v>549</v>
       </c>
       <c r="E26" s="8">
         <v>4.49</v>
       </c>
       <c r="F26" s="6">
-        <f t="shared" si="2"/>
-        <v>1373.94</v>
+        <f t="shared" si="4"/>
+        <v>2465.0100000000002</v>
       </c>
       <c r="G26" s="6">
         <f>SUM(F26,F27)</f>
-        <v>1616.94</v>
+        <v>2902.4100000000003</v>
       </c>
       <c r="H26" s="6">
-        <v>1616.94</v>
+        <v>2902.41</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1207,49 +1207,49 @@
         <v>1</v>
       </c>
       <c r="C27" s="3">
-        <v>5480</v>
+        <v>5660</v>
       </c>
       <c r="D27" s="3">
-        <f t="shared" si="4"/>
-        <v>100</v>
+        <f t="shared" si="5"/>
+        <v>180</v>
       </c>
       <c r="E27" s="9">
         <v>2.4300000000000002</v>
       </c>
       <c r="F27" s="6">
-        <f t="shared" si="2"/>
-        <v>243.00000000000003</v>
+        <f t="shared" si="4"/>
+        <v>437.40000000000003</v>
       </c>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="10">
-        <v>43915</v>
+        <v>43934</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C28" s="3">
-        <v>11380</v>
+        <v>11686</v>
       </c>
       <c r="D28" s="3">
-        <f t="shared" si="4"/>
-        <v>172</v>
+        <f t="shared" ref="D28:D33" si="6">SUM(C28,-C30)</f>
+        <v>306</v>
       </c>
       <c r="E28" s="8">
         <v>4.49</v>
       </c>
       <c r="F28" s="6">
-        <f t="shared" si="2"/>
-        <v>772.28000000000009</v>
+        <f t="shared" si="4"/>
+        <v>1373.94</v>
       </c>
       <c r="G28" s="6">
         <f>SUM(F28,F29)</f>
-        <v>1027.43</v>
+        <v>1616.94</v>
       </c>
       <c r="H28" s="6">
-        <v>1027.43</v>
+        <v>1616.94</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1258,49 +1258,49 @@
         <v>1</v>
       </c>
       <c r="C29" s="3">
-        <v>5380</v>
+        <v>5480</v>
       </c>
       <c r="D29" s="3">
-        <f t="shared" si="4"/>
-        <v>105</v>
+        <f t="shared" si="6"/>
+        <v>100</v>
       </c>
       <c r="E29" s="9">
         <v>2.4300000000000002</v>
       </c>
       <c r="F29" s="6">
-        <f t="shared" si="2"/>
-        <v>255.15</v>
+        <f t="shared" si="4"/>
+        <v>243.00000000000003</v>
       </c>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="10">
-        <v>43830</v>
+        <v>43915</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C30" s="3">
-        <v>11208</v>
+        <v>11380</v>
       </c>
       <c r="D30" s="3">
-        <f t="shared" si="4"/>
-        <v>566</v>
+        <f t="shared" si="6"/>
+        <v>172</v>
       </c>
       <c r="E30" s="8">
         <v>4.49</v>
       </c>
       <c r="F30" s="6">
-        <f t="shared" si="2"/>
-        <v>2541.34</v>
+        <f t="shared" si="4"/>
+        <v>772.28000000000009</v>
       </c>
       <c r="G30" s="6">
         <f>SUM(F30,F31)</f>
-        <v>3209.59</v>
+        <v>1027.43</v>
       </c>
       <c r="H30" s="6">
-        <v>3209.59</v>
+        <v>1027.43</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -1309,37 +1309,50 @@
         <v>1</v>
       </c>
       <c r="C31" s="3">
-        <v>5275</v>
+        <v>5380</v>
       </c>
       <c r="D31" s="3">
-        <f t="shared" si="4"/>
-        <v>275</v>
+        <f t="shared" si="6"/>
+        <v>105</v>
       </c>
       <c r="E31" s="9">
         <v>2.4300000000000002</v>
       </c>
       <c r="F31" s="6">
-        <f t="shared" si="2"/>
-        <v>668.25</v>
+        <f t="shared" si="4"/>
+        <v>255.15</v>
       </c>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="10">
-        <v>43805</v>
+        <v>43830</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C32" s="3">
-        <v>10642</v>
-      </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
+        <v>11208</v>
+      </c>
+      <c r="D32" s="3">
+        <f t="shared" si="6"/>
+        <v>566</v>
+      </c>
+      <c r="E32" s="8">
+        <v>4.49</v>
+      </c>
+      <c r="F32" s="6">
+        <f t="shared" si="4"/>
+        <v>2541.34</v>
+      </c>
+      <c r="G32" s="6">
+        <f>SUM(F32,F33)</f>
+        <v>3209.59</v>
+      </c>
+      <c r="H32" s="6">
+        <v>3209.59</v>
+      </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
@@ -1347,35 +1360,73 @@
         <v>1</v>
       </c>
       <c r="C33" s="3">
-        <v>5000</v>
-      </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="6"/>
+        <v>5275</v>
+      </c>
+      <c r="D33" s="3">
+        <f t="shared" si="6"/>
+        <v>275</v>
+      </c>
+      <c r="E33" s="9">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F33" s="6">
+        <f t="shared" si="4"/>
+        <v>668.25</v>
+      </c>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="3" t="s">
+      <c r="A34" s="10">
+        <v>43805</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="3">
+        <v>10642</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="B35" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="3">
+        <v>5000</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G34" s="6">
-        <f>SUM(G6:G33)</f>
+      <c r="G36" s="6">
+        <f>SUM(G8:G35)</f>
         <v>21294.26</v>
       </c>
-      <c r="H34" s="6">
-        <f>SUM(H6:H33)</f>
+      <c r="H36" s="6">
+        <f>SUM(H8:H35)</f>
         <v>21294.26</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/64ee.xlsx
+++ b/sputnik/personal/ee/64ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -96,18 +96,12 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -143,7 +137,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -186,25 +180,10 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -514,10 +493,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -562,16 +541,16 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
-        <v>44406</v>
+        <v>44427</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="13">
-        <v>14800</v>
+        <v>14900</v>
       </c>
       <c r="D2" s="13">
-        <f t="shared" ref="D2:D9" si="0">SUM(C2,-C4)</f>
+        <f t="shared" ref="D2:D3" si="0">SUM(C2,-C4)</f>
         <v>100</v>
       </c>
       <c r="E2" s="14">
@@ -590,18 +569,18 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
+      <c r="A3" s="16"/>
       <c r="B3" s="13" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="13">
-        <v>6780</v>
+        <v>6810</v>
       </c>
       <c r="D3" s="13">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="17">
         <v>2.68</v>
       </c>
       <c r="F3" s="15">
@@ -612,236 +591,236 @@
       <c r="H3" s="15"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="17">
+      <c r="A4" s="12">
+        <v>44406</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="13">
+        <v>14800</v>
+      </c>
+      <c r="D4" s="13">
+        <f t="shared" ref="D4:D11" si="2">SUM(C4,-C6)</f>
+        <v>100</v>
+      </c>
+      <c r="E4" s="14">
+        <v>4.96</v>
+      </c>
+      <c r="F4" s="15">
+        <f t="shared" ref="F4:F5" si="3">D4*E4</f>
+        <v>496</v>
+      </c>
+      <c r="G4" s="15">
+        <f>SUM(F4,F5)</f>
+        <v>576.4</v>
+      </c>
+      <c r="H4" s="15">
+        <v>576.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="16"/>
+      <c r="B5" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="13">
+        <v>6780</v>
+      </c>
+      <c r="D5" s="13">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="E5" s="17">
+        <v>2.68</v>
+      </c>
+      <c r="F5" s="15">
+        <f t="shared" si="3"/>
+        <v>80.400000000000006</v>
+      </c>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
         <v>44369</v>
       </c>
-      <c r="B4" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="18">
+      <c r="B6" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="13">
         <v>14700</v>
       </c>
-      <c r="D4" s="18">
-        <f t="shared" si="0"/>
+      <c r="D6" s="13">
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E6" s="14">
         <v>4.71</v>
       </c>
-      <c r="F4" s="20">
-        <f t="shared" ref="F4:F5" si="2">D4*E4</f>
+      <c r="F6" s="15">
+        <f t="shared" ref="F6:F7" si="4">D6*E6</f>
         <v>706.5</v>
       </c>
-      <c r="G4" s="20">
-        <f>SUM(F4,F5)</f>
+      <c r="G6" s="15">
+        <f>SUM(F6,F7)</f>
         <v>859.5</v>
       </c>
-      <c r="H4" s="20">
+      <c r="H6" s="15">
         <v>859.5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="21"/>
-      <c r="B5" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="18">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="16"/>
+      <c r="B7" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="13">
         <v>6750</v>
       </c>
-      <c r="D5" s="18">
-        <f t="shared" si="0"/>
+      <c r="D7" s="13">
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E7" s="17">
         <v>2.5499999999999998</v>
       </c>
-      <c r="F5" s="20">
-        <f t="shared" si="2"/>
-        <v>153</v>
-      </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="17">
-        <v>44340</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="18">
-        <v>14550</v>
-      </c>
-      <c r="D6" s="18">
-        <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-      <c r="E6" s="19">
-        <v>4.71</v>
-      </c>
-      <c r="F6" s="20">
-        <f t="shared" ref="F6:F7" si="3">D6*E6</f>
-        <v>706.5</v>
-      </c>
-      <c r="G6" s="20">
-        <f>SUM(F6,F7)</f>
-        <v>910.5</v>
-      </c>
-      <c r="H6" s="20">
-        <v>910.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="21"/>
-      <c r="B7" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="18">
-        <v>6690</v>
-      </c>
-      <c r="D7" s="18">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="E7" s="22">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F7" s="20">
-        <f t="shared" si="3"/>
-        <v>204</v>
-      </c>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="17">
-        <v>44308</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="18">
-        <v>14400</v>
-      </c>
-      <c r="D8" s="18">
-        <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-      <c r="E8" s="19">
-        <v>4.71</v>
-      </c>
-      <c r="F8" s="20">
-        <f t="shared" ref="F8:F33" si="4">D8*E8</f>
-        <v>706.5</v>
-      </c>
-      <c r="G8" s="20">
-        <f>SUM(F8,F9)</f>
-        <v>859.5</v>
-      </c>
-      <c r="H8" s="20">
-        <v>859.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="21"/>
-      <c r="B9" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="18">
-        <v>6610</v>
-      </c>
-      <c r="D9" s="18">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="E9" s="22">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F9" s="20">
+      <c r="F7" s="15">
         <f t="shared" si="4"/>
         <v>153</v>
       </c>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
+        <v>44340</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="13">
+        <v>14550</v>
+      </c>
+      <c r="D8" s="13">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+      <c r="E8" s="14">
+        <v>4.71</v>
+      </c>
+      <c r="F8" s="15">
+        <f t="shared" ref="F8:F9" si="5">D8*E8</f>
+        <v>706.5</v>
+      </c>
+      <c r="G8" s="15">
+        <f>SUM(F8,F9)</f>
+        <v>910.5</v>
+      </c>
+      <c r="H8" s="15">
+        <v>910.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="16"/>
+      <c r="B9" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="13">
+        <v>6690</v>
+      </c>
+      <c r="D9" s="13">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="E9" s="17">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F9" s="15">
+        <f t="shared" si="5"/>
+        <v>204</v>
+      </c>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
-        <v>44260</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="3">
-        <v>14250</v>
-      </c>
-      <c r="D10" s="3">
-        <f t="shared" ref="D10:D27" si="5">SUM(C10,-C12)</f>
-        <v>250</v>
-      </c>
-      <c r="E10" s="8">
+      <c r="A10" s="12">
+        <v>44308</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="13">
+        <v>14400</v>
+      </c>
+      <c r="D10" s="13">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+      <c r="E10" s="14">
         <v>4.71</v>
       </c>
-      <c r="F10" s="6">
-        <f t="shared" si="4"/>
-        <v>1177.5</v>
-      </c>
-      <c r="G10" s="6">
+      <c r="F10" s="15">
+        <f t="shared" ref="F10:F35" si="6">D10*E10</f>
+        <v>706.5</v>
+      </c>
+      <c r="G10" s="15">
         <f>SUM(F10,F11)</f>
-        <v>1305</v>
-      </c>
-      <c r="H10" s="6">
-        <v>1305</v>
+        <v>859.5</v>
+      </c>
+      <c r="H10" s="15">
+        <v>859.5</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="3">
-        <v>6550</v>
-      </c>
-      <c r="D11" s="3">
-        <f t="shared" si="5"/>
-        <v>50</v>
-      </c>
-      <c r="E11" s="9">
+      <c r="A11" s="16"/>
+      <c r="B11" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="13">
+        <v>6610</v>
+      </c>
+      <c r="D11" s="13">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="E11" s="17">
         <v>2.5499999999999998</v>
       </c>
-      <c r="F11" s="6">
-        <f t="shared" si="4"/>
-        <v>127.49999999999999</v>
-      </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
+      <c r="F11" s="15">
+        <f t="shared" si="6"/>
+        <v>153</v>
+      </c>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
-        <v>44238</v>
+        <v>44260</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="3">
-        <v>14000</v>
+        <v>14250</v>
       </c>
       <c r="D12" s="3">
-        <f t="shared" si="5"/>
-        <v>200</v>
+        <f t="shared" ref="D12:D29" si="7">SUM(C12,-C14)</f>
+        <v>250</v>
       </c>
       <c r="E12" s="8">
         <v>4.71</v>
       </c>
       <c r="F12" s="6">
-        <f t="shared" si="4"/>
-        <v>942</v>
+        <f t="shared" si="6"/>
+        <v>1177.5</v>
       </c>
       <c r="G12" s="6">
         <f>SUM(F12,F13)</f>
-        <v>1197</v>
+        <v>1305</v>
       </c>
       <c r="H12" s="6">
-        <v>1197</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -850,49 +829,49 @@
         <v>1</v>
       </c>
       <c r="C13" s="3">
-        <v>6500</v>
+        <v>6550</v>
       </c>
       <c r="D13" s="3">
-        <f t="shared" si="5"/>
-        <v>100</v>
+        <f t="shared" si="7"/>
+        <v>50</v>
       </c>
       <c r="E13" s="9">
         <v>2.5499999999999998</v>
       </c>
       <c r="F13" s="6">
-        <f t="shared" si="4"/>
-        <v>254.99999999999997</v>
+        <f t="shared" si="6"/>
+        <v>127.49999999999999</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
-        <v>44207</v>
+        <v>44238</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="3">
-        <v>13800</v>
+        <v>14000</v>
       </c>
       <c r="D14" s="3">
-        <f t="shared" si="5"/>
-        <v>300</v>
+        <f t="shared" si="7"/>
+        <v>200</v>
       </c>
       <c r="E14" s="8">
         <v>4.71</v>
       </c>
       <c r="F14" s="6">
-        <f t="shared" si="4"/>
-        <v>1413</v>
+        <f t="shared" si="6"/>
+        <v>942</v>
       </c>
       <c r="G14" s="6">
         <f>SUM(F14,F15)</f>
-        <v>2050.5</v>
+        <v>1197</v>
       </c>
       <c r="H14" s="6">
-        <v>2050.5</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -901,49 +880,49 @@
         <v>1</v>
       </c>
       <c r="C15" s="3">
-        <v>6400</v>
+        <v>6500</v>
       </c>
       <c r="D15" s="3">
-        <f t="shared" si="5"/>
-        <v>250</v>
+        <f t="shared" si="7"/>
+        <v>100</v>
       </c>
       <c r="E15" s="9">
         <v>2.5499999999999998</v>
       </c>
       <c r="F15" s="6">
-        <f t="shared" si="4"/>
-        <v>637.5</v>
+        <f t="shared" si="6"/>
+        <v>254.99999999999997</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
-        <v>44173</v>
+        <v>44207</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="3">
-        <v>13500</v>
+        <v>13800</v>
       </c>
       <c r="D16" s="3">
-        <f t="shared" si="5"/>
-        <v>250</v>
+        <f t="shared" si="7"/>
+        <v>300</v>
       </c>
       <c r="E16" s="8">
         <v>4.71</v>
       </c>
       <c r="F16" s="6">
-        <f t="shared" si="4"/>
-        <v>1177.5</v>
+        <f t="shared" si="6"/>
+        <v>1413</v>
       </c>
       <c r="G16" s="6">
         <f>SUM(F16,F17)</f>
-        <v>1662</v>
+        <v>2050.5</v>
       </c>
       <c r="H16" s="6">
-        <v>1662</v>
+        <v>2050.5</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -952,49 +931,49 @@
         <v>1</v>
       </c>
       <c r="C17" s="3">
-        <v>6150</v>
+        <v>6400</v>
       </c>
       <c r="D17" s="3">
-        <f t="shared" si="5"/>
-        <v>190</v>
+        <f t="shared" si="7"/>
+        <v>250</v>
       </c>
       <c r="E17" s="9">
         <v>2.5499999999999998</v>
       </c>
       <c r="F17" s="6">
-        <f t="shared" si="4"/>
-        <v>484.49999999999994</v>
+        <f t="shared" si="6"/>
+        <v>637.5</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
-        <v>44140</v>
+        <v>44173</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C18" s="3">
-        <v>13250</v>
+        <v>13500</v>
       </c>
       <c r="D18" s="3">
-        <f t="shared" si="5"/>
-        <v>280</v>
+        <f t="shared" si="7"/>
+        <v>250</v>
       </c>
       <c r="E18" s="8">
         <v>4.71</v>
       </c>
       <c r="F18" s="6">
-        <f t="shared" si="4"/>
-        <v>1318.8</v>
+        <f t="shared" si="6"/>
+        <v>1177.5</v>
       </c>
       <c r="G18" s="6">
         <f>SUM(F18,F19)</f>
-        <v>1446.3</v>
+        <v>1662</v>
       </c>
       <c r="H18" s="6">
-        <v>1446.3</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1003,49 +982,49 @@
         <v>1</v>
       </c>
       <c r="C19" s="3">
-        <v>5960</v>
+        <v>6150</v>
       </c>
       <c r="D19" s="3">
-        <f t="shared" si="5"/>
-        <v>50</v>
+        <f t="shared" si="7"/>
+        <v>190</v>
       </c>
       <c r="E19" s="9">
         <v>2.5499999999999998</v>
       </c>
       <c r="F19" s="6">
-        <f t="shared" si="4"/>
-        <v>127.49999999999999</v>
+        <f t="shared" si="6"/>
+        <v>484.49999999999994</v>
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
-        <v>44090</v>
+        <v>44140</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C20" s="3">
-        <v>12970</v>
+        <v>13250</v>
       </c>
       <c r="D20" s="3">
-        <f t="shared" si="5"/>
-        <v>240</v>
+        <f t="shared" si="7"/>
+        <v>280</v>
       </c>
       <c r="E20" s="8">
         <v>4.71</v>
       </c>
       <c r="F20" s="6">
-        <f t="shared" si="4"/>
-        <v>1130.4000000000001</v>
+        <f t="shared" si="6"/>
+        <v>1318.8</v>
       </c>
       <c r="G20" s="6">
         <f>SUM(F20,F21)</f>
-        <v>1334.4</v>
+        <v>1446.3</v>
       </c>
       <c r="H20" s="6">
-        <v>1334.4</v>
+        <v>1446.3</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1054,49 +1033,49 @@
         <v>1</v>
       </c>
       <c r="C21" s="3">
-        <v>5910</v>
+        <v>5960</v>
       </c>
       <c r="D21" s="3">
-        <f t="shared" si="5"/>
-        <v>80</v>
+        <f t="shared" si="7"/>
+        <v>50</v>
       </c>
       <c r="E21" s="9">
         <v>2.5499999999999998</v>
       </c>
       <c r="F21" s="6">
-        <f t="shared" si="4"/>
-        <v>204</v>
+        <f t="shared" si="6"/>
+        <v>127.49999999999999</v>
       </c>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
-        <v>44053</v>
+        <v>44090</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C22" s="3">
-        <v>12730</v>
+        <v>12970</v>
       </c>
       <c r="D22" s="3">
-        <f t="shared" si="5"/>
-        <v>185</v>
+        <f t="shared" si="7"/>
+        <v>240</v>
       </c>
       <c r="E22" s="8">
         <v>4.71</v>
       </c>
       <c r="F22" s="6">
-        <f t="shared" si="4"/>
-        <v>871.35</v>
+        <f t="shared" si="6"/>
+        <v>1130.4000000000001</v>
       </c>
       <c r="G22" s="6">
         <f>SUM(F22,F23)</f>
-        <v>1016.7</v>
+        <v>1334.4</v>
       </c>
       <c r="H22" s="6">
-        <v>1016.7</v>
+        <v>1334.4</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1105,49 +1084,49 @@
         <v>1</v>
       </c>
       <c r="C23" s="3">
-        <v>5830</v>
+        <v>5910</v>
       </c>
       <c r="D23" s="3">
-        <f t="shared" si="5"/>
-        <v>57</v>
+        <f t="shared" si="7"/>
+        <v>80</v>
       </c>
       <c r="E23" s="9">
         <v>2.5499999999999998</v>
       </c>
       <c r="F23" s="6">
-        <f t="shared" si="4"/>
-        <v>145.35</v>
+        <f t="shared" si="6"/>
+        <v>204</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
-        <v>44005</v>
+        <v>44053</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C24" s="3">
-        <v>12545</v>
+        <v>12730</v>
       </c>
       <c r="D24" s="3">
-        <f t="shared" si="5"/>
-        <v>310</v>
+        <f t="shared" si="7"/>
+        <v>185</v>
       </c>
       <c r="E24" s="8">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F24" s="6">
-        <f t="shared" si="4"/>
-        <v>1391.9</v>
+        <f t="shared" si="6"/>
+        <v>871.35</v>
       </c>
       <c r="G24" s="6">
         <f>SUM(F24,F25)</f>
-        <v>1666.4900000000002</v>
+        <v>1016.7</v>
       </c>
       <c r="H24" s="6">
-        <v>1666.49</v>
+        <v>1016.7</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1156,49 +1135,49 @@
         <v>1</v>
       </c>
       <c r="C25" s="3">
-        <v>5773</v>
+        <v>5830</v>
       </c>
       <c r="D25" s="3">
-        <f t="shared" si="5"/>
-        <v>113</v>
+        <f t="shared" si="7"/>
+        <v>57</v>
       </c>
       <c r="E25" s="9">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F25" s="6">
-        <f t="shared" si="4"/>
-        <v>274.59000000000003</v>
+        <f t="shared" si="6"/>
+        <v>145.35</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="10">
-        <v>43980</v>
+        <v>44005</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C26" s="3">
-        <v>12235</v>
+        <v>12545</v>
       </c>
       <c r="D26" s="3">
-        <f t="shared" si="5"/>
-        <v>549</v>
+        <f t="shared" si="7"/>
+        <v>310</v>
       </c>
       <c r="E26" s="8">
         <v>4.49</v>
       </c>
       <c r="F26" s="6">
-        <f t="shared" si="4"/>
-        <v>2465.0100000000002</v>
+        <f t="shared" si="6"/>
+        <v>1391.9</v>
       </c>
       <c r="G26" s="6">
         <f>SUM(F26,F27)</f>
-        <v>2902.4100000000003</v>
+        <v>1666.4900000000002</v>
       </c>
       <c r="H26" s="6">
-        <v>2902.41</v>
+        <v>1666.49</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1207,49 +1186,49 @@
         <v>1</v>
       </c>
       <c r="C27" s="3">
-        <v>5660</v>
+        <v>5773</v>
       </c>
       <c r="D27" s="3">
-        <f t="shared" si="5"/>
-        <v>180</v>
+        <f t="shared" si="7"/>
+        <v>113</v>
       </c>
       <c r="E27" s="9">
         <v>2.4300000000000002</v>
       </c>
       <c r="F27" s="6">
-        <f t="shared" si="4"/>
-        <v>437.40000000000003</v>
+        <f t="shared" si="6"/>
+        <v>274.59000000000003</v>
       </c>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="10">
-        <v>43934</v>
+        <v>43980</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C28" s="3">
-        <v>11686</v>
+        <v>12235</v>
       </c>
       <c r="D28" s="3">
-        <f t="shared" ref="D28:D33" si="6">SUM(C28,-C30)</f>
-        <v>306</v>
+        <f t="shared" si="7"/>
+        <v>549</v>
       </c>
       <c r="E28" s="8">
         <v>4.49</v>
       </c>
       <c r="F28" s="6">
-        <f t="shared" si="4"/>
-        <v>1373.94</v>
+        <f t="shared" si="6"/>
+        <v>2465.0100000000002</v>
       </c>
       <c r="G28" s="6">
         <f>SUM(F28,F29)</f>
-        <v>1616.94</v>
+        <v>2902.4100000000003</v>
       </c>
       <c r="H28" s="6">
-        <v>1616.94</v>
+        <v>2902.41</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1258,49 +1237,49 @@
         <v>1</v>
       </c>
       <c r="C29" s="3">
-        <v>5480</v>
+        <v>5660</v>
       </c>
       <c r="D29" s="3">
-        <f t="shared" si="6"/>
-        <v>100</v>
+        <f t="shared" si="7"/>
+        <v>180</v>
       </c>
       <c r="E29" s="9">
         <v>2.4300000000000002</v>
       </c>
       <c r="F29" s="6">
-        <f t="shared" si="4"/>
-        <v>243.00000000000003</v>
+        <f t="shared" si="6"/>
+        <v>437.40000000000003</v>
       </c>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="10">
-        <v>43915</v>
+        <v>43934</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C30" s="3">
-        <v>11380</v>
+        <v>11686</v>
       </c>
       <c r="D30" s="3">
-        <f t="shared" si="6"/>
-        <v>172</v>
+        <f t="shared" ref="D30:D35" si="8">SUM(C30,-C32)</f>
+        <v>306</v>
       </c>
       <c r="E30" s="8">
         <v>4.49</v>
       </c>
       <c r="F30" s="6">
-        <f t="shared" si="4"/>
-        <v>772.28000000000009</v>
+        <f t="shared" si="6"/>
+        <v>1373.94</v>
       </c>
       <c r="G30" s="6">
         <f>SUM(F30,F31)</f>
-        <v>1027.43</v>
+        <v>1616.94</v>
       </c>
       <c r="H30" s="6">
-        <v>1027.43</v>
+        <v>1616.94</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -1309,49 +1288,49 @@
         <v>1</v>
       </c>
       <c r="C31" s="3">
-        <v>5380</v>
+        <v>5480</v>
       </c>
       <c r="D31" s="3">
-        <f t="shared" si="6"/>
-        <v>105</v>
+        <f t="shared" si="8"/>
+        <v>100</v>
       </c>
       <c r="E31" s="9">
         <v>2.4300000000000002</v>
       </c>
       <c r="F31" s="6">
-        <f t="shared" si="4"/>
-        <v>255.15</v>
+        <f t="shared" si="6"/>
+        <v>243.00000000000003</v>
       </c>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="10">
-        <v>43830</v>
+        <v>43915</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C32" s="3">
-        <v>11208</v>
+        <v>11380</v>
       </c>
       <c r="D32" s="3">
-        <f t="shared" si="6"/>
-        <v>566</v>
+        <f t="shared" si="8"/>
+        <v>172</v>
       </c>
       <c r="E32" s="8">
         <v>4.49</v>
       </c>
       <c r="F32" s="6">
-        <f t="shared" si="4"/>
-        <v>2541.34</v>
+        <f t="shared" si="6"/>
+        <v>772.28000000000009</v>
       </c>
       <c r="G32" s="6">
         <f>SUM(F32,F33)</f>
-        <v>3209.59</v>
+        <v>1027.43</v>
       </c>
       <c r="H32" s="6">
-        <v>3209.59</v>
+        <v>1027.43</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -1360,37 +1339,50 @@
         <v>1</v>
       </c>
       <c r="C33" s="3">
-        <v>5275</v>
+        <v>5380</v>
       </c>
       <c r="D33" s="3">
-        <f t="shared" si="6"/>
-        <v>275</v>
+        <f t="shared" si="8"/>
+        <v>105</v>
       </c>
       <c r="E33" s="9">
         <v>2.4300000000000002</v>
       </c>
       <c r="F33" s="6">
-        <f t="shared" si="4"/>
-        <v>668.25</v>
+        <f t="shared" si="6"/>
+        <v>255.15</v>
       </c>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="10">
-        <v>43805</v>
+        <v>43830</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C34" s="3">
-        <v>10642</v>
-      </c>
-      <c r="D34" s="3"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
+        <v>11208</v>
+      </c>
+      <c r="D34" s="3">
+        <f t="shared" si="8"/>
+        <v>566</v>
+      </c>
+      <c r="E34" s="8">
+        <v>4.49</v>
+      </c>
+      <c r="F34" s="6">
+        <f t="shared" si="6"/>
+        <v>2541.34</v>
+      </c>
+      <c r="G34" s="6">
+        <f>SUM(F34,F35)</f>
+        <v>3209.59</v>
+      </c>
+      <c r="H34" s="6">
+        <v>3209.59</v>
+      </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
@@ -1398,35 +1390,73 @@
         <v>1</v>
       </c>
       <c r="C35" s="3">
-        <v>5000</v>
-      </c>
-      <c r="D35" s="3"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="6"/>
+        <v>5275</v>
+      </c>
+      <c r="D35" s="3">
+        <f t="shared" si="8"/>
+        <v>275</v>
+      </c>
+      <c r="E35" s="9">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F35" s="6">
+        <f t="shared" si="6"/>
+        <v>668.25</v>
+      </c>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="3" t="s">
+      <c r="A36" s="10">
+        <v>43805</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="3">
+        <v>10642</v>
+      </c>
+      <c r="D36" s="3"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+      <c r="B37" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="3">
+        <v>5000</v>
+      </c>
+      <c r="D37" s="3"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G36" s="6">
-        <f>SUM(G8:G35)</f>
+      <c r="G38" s="6">
+        <f>SUM(G10:G37)</f>
         <v>21294.26</v>
       </c>
-      <c r="H36" s="6">
-        <f>SUM(H8:H35)</f>
+      <c r="H38" s="6">
+        <f>SUM(H10:H37)</f>
         <v>21294.26</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/64ee.xlsx
+++ b/sputnik/personal/ee/64ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -493,10 +493,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -541,31 +541,31 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
-        <v>44427</v>
+        <v>44459</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="13">
-        <v>14900</v>
+        <v>15100</v>
       </c>
       <c r="D2" s="13">
         <f t="shared" ref="D2:D3" si="0">SUM(C2,-C4)</f>
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E2" s="14">
         <v>4.96</v>
       </c>
       <c r="F2" s="15">
         <f t="shared" ref="F2:F3" si="1">D2*E2</f>
-        <v>496</v>
+        <v>992</v>
       </c>
       <c r="G2" s="15">
         <f>SUM(F2,F3)</f>
-        <v>576.4</v>
+        <v>1179.5999999999999</v>
       </c>
       <c r="H2" s="15">
-        <v>576.4</v>
+        <v>1179.5999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -574,34 +574,34 @@
         <v>1</v>
       </c>
       <c r="C3" s="13">
-        <v>6810</v>
+        <v>6880</v>
       </c>
       <c r="D3" s="13">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="E3" s="17">
         <v>2.68</v>
       </c>
       <c r="F3" s="15">
         <f t="shared" si="1"/>
-        <v>80.400000000000006</v>
+        <v>187.60000000000002</v>
       </c>
       <c r="G3" s="15"/>
       <c r="H3" s="15"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
-        <v>44406</v>
+        <v>44427</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="13">
-        <v>14800</v>
+        <v>14900</v>
       </c>
       <c r="D4" s="13">
-        <f t="shared" ref="D4:D11" si="2">SUM(C4,-C6)</f>
+        <f t="shared" ref="D4:D5" si="2">SUM(C4,-C6)</f>
         <v>100</v>
       </c>
       <c r="E4" s="14">
@@ -625,7 +625,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="13">
-        <v>6780</v>
+        <v>6810</v>
       </c>
       <c r="D5" s="13">
         <f t="shared" si="2"/>
@@ -643,31 +643,31 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
-        <v>44369</v>
+        <v>44406</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="13">
-        <v>14700</v>
+        <v>14800</v>
       </c>
       <c r="D6" s="13">
-        <f t="shared" si="2"/>
-        <v>150</v>
+        <f t="shared" ref="D6:D13" si="4">SUM(C6,-C8)</f>
+        <v>100</v>
       </c>
       <c r="E6" s="14">
-        <v>4.71</v>
+        <v>4.96</v>
       </c>
       <c r="F6" s="15">
-        <f t="shared" ref="F6:F7" si="4">D6*E6</f>
-        <v>706.5</v>
+        <f t="shared" ref="F6:F7" si="5">D6*E6</f>
+        <v>496</v>
       </c>
       <c r="G6" s="15">
         <f>SUM(F6,F7)</f>
-        <v>859.5</v>
+        <v>576.4</v>
       </c>
       <c r="H6" s="15">
-        <v>859.5</v>
+        <v>576.4</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -676,49 +676,49 @@
         <v>1</v>
       </c>
       <c r="C7" s="13">
-        <v>6750</v>
+        <v>6780</v>
       </c>
       <c r="D7" s="13">
-        <f t="shared" si="2"/>
-        <v>60</v>
+        <f t="shared" si="4"/>
+        <v>30</v>
       </c>
       <c r="E7" s="17">
-        <v>2.5499999999999998</v>
+        <v>2.68</v>
       </c>
       <c r="F7" s="15">
-        <f t="shared" si="4"/>
-        <v>153</v>
+        <f t="shared" si="5"/>
+        <v>80.400000000000006</v>
       </c>
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
-        <v>44340</v>
+        <v>44369</v>
       </c>
       <c r="B8" s="13" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="13">
-        <v>14550</v>
+        <v>14700</v>
       </c>
       <c r="D8" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>150</v>
       </c>
       <c r="E8" s="14">
         <v>4.71</v>
       </c>
       <c r="F8" s="15">
-        <f t="shared" ref="F8:F9" si="5">D8*E8</f>
+        <f t="shared" ref="F8:F9" si="6">D8*E8</f>
         <v>706.5</v>
       </c>
       <c r="G8" s="15">
         <f>SUM(F8,F9)</f>
-        <v>910.5</v>
+        <v>859.5</v>
       </c>
       <c r="H8" s="15">
-        <v>910.5</v>
+        <v>859.5</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -727,49 +727,49 @@
         <v>1</v>
       </c>
       <c r="C9" s="13">
-        <v>6690</v>
+        <v>6750</v>
       </c>
       <c r="D9" s="13">
-        <f t="shared" si="2"/>
-        <v>80</v>
+        <f t="shared" si="4"/>
+        <v>60</v>
       </c>
       <c r="E9" s="17">
         <v>2.5499999999999998</v>
       </c>
       <c r="F9" s="15">
-        <f t="shared" si="5"/>
-        <v>204</v>
+        <f t="shared" si="6"/>
+        <v>153</v>
       </c>
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
-        <v>44308</v>
+        <v>44340</v>
       </c>
       <c r="B10" s="13" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="13">
-        <v>14400</v>
+        <v>14550</v>
       </c>
       <c r="D10" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>150</v>
       </c>
       <c r="E10" s="14">
         <v>4.71</v>
       </c>
       <c r="F10" s="15">
-        <f t="shared" ref="F10:F35" si="6">D10*E10</f>
+        <f t="shared" ref="F10:F11" si="7">D10*E10</f>
         <v>706.5</v>
       </c>
       <c r="G10" s="15">
         <f>SUM(F10,F11)</f>
-        <v>859.5</v>
+        <v>910.5</v>
       </c>
       <c r="H10" s="15">
-        <v>859.5</v>
+        <v>910.5</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -778,100 +778,100 @@
         <v>1</v>
       </c>
       <c r="C11" s="13">
-        <v>6610</v>
+        <v>6690</v>
       </c>
       <c r="D11" s="13">
-        <f t="shared" si="2"/>
-        <v>60</v>
+        <f t="shared" si="4"/>
+        <v>80</v>
       </c>
       <c r="E11" s="17">
         <v>2.5499999999999998</v>
       </c>
       <c r="F11" s="15">
-        <f t="shared" si="6"/>
-        <v>153</v>
+        <f t="shared" si="7"/>
+        <v>204</v>
       </c>
       <c r="G11" s="15"/>
       <c r="H11" s="15"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
-        <v>44260</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="3">
-        <v>14250</v>
-      </c>
-      <c r="D12" s="3">
-        <f t="shared" ref="D12:D29" si="7">SUM(C12,-C14)</f>
-        <v>250</v>
-      </c>
-      <c r="E12" s="8">
+      <c r="A12" s="12">
+        <v>44308</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="13">
+        <v>14400</v>
+      </c>
+      <c r="D12" s="13">
+        <f t="shared" si="4"/>
+        <v>150</v>
+      </c>
+      <c r="E12" s="14">
         <v>4.71</v>
       </c>
-      <c r="F12" s="6">
-        <f t="shared" si="6"/>
-        <v>1177.5</v>
-      </c>
-      <c r="G12" s="6">
+      <c r="F12" s="15">
+        <f t="shared" ref="F12:F37" si="8">D12*E12</f>
+        <v>706.5</v>
+      </c>
+      <c r="G12" s="15">
         <f>SUM(F12,F13)</f>
-        <v>1305</v>
-      </c>
-      <c r="H12" s="6">
-        <v>1305</v>
+        <v>859.5</v>
+      </c>
+      <c r="H12" s="15">
+        <v>859.5</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="3">
-        <v>6550</v>
-      </c>
-      <c r="D13" s="3">
-        <f t="shared" si="7"/>
-        <v>50</v>
-      </c>
-      <c r="E13" s="9">
+      <c r="A13" s="16"/>
+      <c r="B13" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="13">
+        <v>6610</v>
+      </c>
+      <c r="D13" s="13">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="E13" s="17">
         <v>2.5499999999999998</v>
       </c>
-      <c r="F13" s="6">
-        <f t="shared" si="6"/>
-        <v>127.49999999999999</v>
-      </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
+      <c r="F13" s="15">
+        <f t="shared" si="8"/>
+        <v>153</v>
+      </c>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
-        <v>44238</v>
+        <v>44260</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="3">
-        <v>14000</v>
+        <v>14250</v>
       </c>
       <c r="D14" s="3">
-        <f t="shared" si="7"/>
-        <v>200</v>
+        <f t="shared" ref="D14:D31" si="9">SUM(C14,-C16)</f>
+        <v>250</v>
       </c>
       <c r="E14" s="8">
         <v>4.71</v>
       </c>
       <c r="F14" s="6">
-        <f t="shared" si="6"/>
-        <v>942</v>
+        <f t="shared" si="8"/>
+        <v>1177.5</v>
       </c>
       <c r="G14" s="6">
         <f>SUM(F14,F15)</f>
-        <v>1197</v>
+        <v>1305</v>
       </c>
       <c r="H14" s="6">
-        <v>1197</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -880,49 +880,49 @@
         <v>1</v>
       </c>
       <c r="C15" s="3">
-        <v>6500</v>
+        <v>6550</v>
       </c>
       <c r="D15" s="3">
-        <f t="shared" si="7"/>
-        <v>100</v>
+        <f t="shared" si="9"/>
+        <v>50</v>
       </c>
       <c r="E15" s="9">
         <v>2.5499999999999998</v>
       </c>
       <c r="F15" s="6">
-        <f t="shared" si="6"/>
-        <v>254.99999999999997</v>
+        <f t="shared" si="8"/>
+        <v>127.49999999999999</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
-        <v>44207</v>
+        <v>44238</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="3">
-        <v>13800</v>
+        <v>14000</v>
       </c>
       <c r="D16" s="3">
-        <f t="shared" si="7"/>
-        <v>300</v>
+        <f t="shared" si="9"/>
+        <v>200</v>
       </c>
       <c r="E16" s="8">
         <v>4.71</v>
       </c>
       <c r="F16" s="6">
-        <f t="shared" si="6"/>
-        <v>1413</v>
+        <f t="shared" si="8"/>
+        <v>942</v>
       </c>
       <c r="G16" s="6">
         <f>SUM(F16,F17)</f>
-        <v>2050.5</v>
+        <v>1197</v>
       </c>
       <c r="H16" s="6">
-        <v>2050.5</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -931,49 +931,49 @@
         <v>1</v>
       </c>
       <c r="C17" s="3">
-        <v>6400</v>
+        <v>6500</v>
       </c>
       <c r="D17" s="3">
-        <f t="shared" si="7"/>
-        <v>250</v>
+        <f t="shared" si="9"/>
+        <v>100</v>
       </c>
       <c r="E17" s="9">
         <v>2.5499999999999998</v>
       </c>
       <c r="F17" s="6">
-        <f t="shared" si="6"/>
-        <v>637.5</v>
+        <f t="shared" si="8"/>
+        <v>254.99999999999997</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
-        <v>44173</v>
+        <v>44207</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C18" s="3">
-        <v>13500</v>
+        <v>13800</v>
       </c>
       <c r="D18" s="3">
-        <f t="shared" si="7"/>
-        <v>250</v>
+        <f t="shared" si="9"/>
+        <v>300</v>
       </c>
       <c r="E18" s="8">
         <v>4.71</v>
       </c>
       <c r="F18" s="6">
-        <f t="shared" si="6"/>
-        <v>1177.5</v>
+        <f t="shared" si="8"/>
+        <v>1413</v>
       </c>
       <c r="G18" s="6">
         <f>SUM(F18,F19)</f>
-        <v>1662</v>
+        <v>2050.5</v>
       </c>
       <c r="H18" s="6">
-        <v>1662</v>
+        <v>2050.5</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -982,49 +982,49 @@
         <v>1</v>
       </c>
       <c r="C19" s="3">
-        <v>6150</v>
+        <v>6400</v>
       </c>
       <c r="D19" s="3">
-        <f t="shared" si="7"/>
-        <v>190</v>
+        <f t="shared" si="9"/>
+        <v>250</v>
       </c>
       <c r="E19" s="9">
         <v>2.5499999999999998</v>
       </c>
       <c r="F19" s="6">
-        <f t="shared" si="6"/>
-        <v>484.49999999999994</v>
+        <f t="shared" si="8"/>
+        <v>637.5</v>
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
-        <v>44140</v>
+        <v>44173</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C20" s="3">
-        <v>13250</v>
+        <v>13500</v>
       </c>
       <c r="D20" s="3">
-        <f t="shared" si="7"/>
-        <v>280</v>
+        <f t="shared" si="9"/>
+        <v>250</v>
       </c>
       <c r="E20" s="8">
         <v>4.71</v>
       </c>
       <c r="F20" s="6">
-        <f t="shared" si="6"/>
-        <v>1318.8</v>
+        <f t="shared" si="8"/>
+        <v>1177.5</v>
       </c>
       <c r="G20" s="6">
         <f>SUM(F20,F21)</f>
-        <v>1446.3</v>
+        <v>1662</v>
       </c>
       <c r="H20" s="6">
-        <v>1446.3</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1033,49 +1033,49 @@
         <v>1</v>
       </c>
       <c r="C21" s="3">
-        <v>5960</v>
+        <v>6150</v>
       </c>
       <c r="D21" s="3">
-        <f t="shared" si="7"/>
-        <v>50</v>
+        <f t="shared" si="9"/>
+        <v>190</v>
       </c>
       <c r="E21" s="9">
         <v>2.5499999999999998</v>
       </c>
       <c r="F21" s="6">
-        <f t="shared" si="6"/>
-        <v>127.49999999999999</v>
+        <f t="shared" si="8"/>
+        <v>484.49999999999994</v>
       </c>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
-        <v>44090</v>
+        <v>44140</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C22" s="3">
-        <v>12970</v>
+        <v>13250</v>
       </c>
       <c r="D22" s="3">
-        <f t="shared" si="7"/>
-        <v>240</v>
+        <f t="shared" si="9"/>
+        <v>280</v>
       </c>
       <c r="E22" s="8">
         <v>4.71</v>
       </c>
       <c r="F22" s="6">
-        <f t="shared" si="6"/>
-        <v>1130.4000000000001</v>
+        <f t="shared" si="8"/>
+        <v>1318.8</v>
       </c>
       <c r="G22" s="6">
         <f>SUM(F22,F23)</f>
-        <v>1334.4</v>
+        <v>1446.3</v>
       </c>
       <c r="H22" s="6">
-        <v>1334.4</v>
+        <v>1446.3</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1084,49 +1084,49 @@
         <v>1</v>
       </c>
       <c r="C23" s="3">
-        <v>5910</v>
+        <v>5960</v>
       </c>
       <c r="D23" s="3">
-        <f t="shared" si="7"/>
-        <v>80</v>
+        <f t="shared" si="9"/>
+        <v>50</v>
       </c>
       <c r="E23" s="9">
         <v>2.5499999999999998</v>
       </c>
       <c r="F23" s="6">
-        <f t="shared" si="6"/>
-        <v>204</v>
+        <f t="shared" si="8"/>
+        <v>127.49999999999999</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
-        <v>44053</v>
+        <v>44090</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C24" s="3">
-        <v>12730</v>
+        <v>12970</v>
       </c>
       <c r="D24" s="3">
-        <f t="shared" si="7"/>
-        <v>185</v>
+        <f t="shared" si="9"/>
+        <v>240</v>
       </c>
       <c r="E24" s="8">
         <v>4.71</v>
       </c>
       <c r="F24" s="6">
-        <f t="shared" si="6"/>
-        <v>871.35</v>
+        <f t="shared" si="8"/>
+        <v>1130.4000000000001</v>
       </c>
       <c r="G24" s="6">
         <f>SUM(F24,F25)</f>
-        <v>1016.7</v>
+        <v>1334.4</v>
       </c>
       <c r="H24" s="6">
-        <v>1016.7</v>
+        <v>1334.4</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1135,49 +1135,49 @@
         <v>1</v>
       </c>
       <c r="C25" s="3">
-        <v>5830</v>
+        <v>5910</v>
       </c>
       <c r="D25" s="3">
-        <f t="shared" si="7"/>
-        <v>57</v>
+        <f t="shared" si="9"/>
+        <v>80</v>
       </c>
       <c r="E25" s="9">
         <v>2.5499999999999998</v>
       </c>
       <c r="F25" s="6">
-        <f t="shared" si="6"/>
-        <v>145.35</v>
+        <f t="shared" si="8"/>
+        <v>204</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="10">
-        <v>44005</v>
+        <v>44053</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C26" s="3">
-        <v>12545</v>
+        <v>12730</v>
       </c>
       <c r="D26" s="3">
-        <f t="shared" si="7"/>
-        <v>310</v>
+        <f t="shared" si="9"/>
+        <v>185</v>
       </c>
       <c r="E26" s="8">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F26" s="6">
-        <f t="shared" si="6"/>
-        <v>1391.9</v>
+        <f t="shared" si="8"/>
+        <v>871.35</v>
       </c>
       <c r="G26" s="6">
         <f>SUM(F26,F27)</f>
-        <v>1666.4900000000002</v>
+        <v>1016.7</v>
       </c>
       <c r="H26" s="6">
-        <v>1666.49</v>
+        <v>1016.7</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1186,49 +1186,49 @@
         <v>1</v>
       </c>
       <c r="C27" s="3">
-        <v>5773</v>
+        <v>5830</v>
       </c>
       <c r="D27" s="3">
-        <f t="shared" si="7"/>
-        <v>113</v>
+        <f t="shared" si="9"/>
+        <v>57</v>
       </c>
       <c r="E27" s="9">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F27" s="6">
-        <f t="shared" si="6"/>
-        <v>274.59000000000003</v>
+        <f t="shared" si="8"/>
+        <v>145.35</v>
       </c>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="10">
-        <v>43980</v>
+        <v>44005</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C28" s="3">
-        <v>12235</v>
+        <v>12545</v>
       </c>
       <c r="D28" s="3">
-        <f t="shared" si="7"/>
-        <v>549</v>
+        <f t="shared" si="9"/>
+        <v>310</v>
       </c>
       <c r="E28" s="8">
         <v>4.49</v>
       </c>
       <c r="F28" s="6">
-        <f t="shared" si="6"/>
-        <v>2465.0100000000002</v>
+        <f t="shared" si="8"/>
+        <v>1391.9</v>
       </c>
       <c r="G28" s="6">
         <f>SUM(F28,F29)</f>
-        <v>2902.4100000000003</v>
+        <v>1666.4900000000002</v>
       </c>
       <c r="H28" s="6">
-        <v>2902.41</v>
+        <v>1666.49</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1237,49 +1237,49 @@
         <v>1</v>
       </c>
       <c r="C29" s="3">
-        <v>5660</v>
+        <v>5773</v>
       </c>
       <c r="D29" s="3">
-        <f t="shared" si="7"/>
-        <v>180</v>
+        <f t="shared" si="9"/>
+        <v>113</v>
       </c>
       <c r="E29" s="9">
         <v>2.4300000000000002</v>
       </c>
       <c r="F29" s="6">
-        <f t="shared" si="6"/>
-        <v>437.40000000000003</v>
+        <f t="shared" si="8"/>
+        <v>274.59000000000003</v>
       </c>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="10">
-        <v>43934</v>
+        <v>43980</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C30" s="3">
-        <v>11686</v>
+        <v>12235</v>
       </c>
       <c r="D30" s="3">
-        <f t="shared" ref="D30:D35" si="8">SUM(C30,-C32)</f>
-        <v>306</v>
+        <f t="shared" si="9"/>
+        <v>549</v>
       </c>
       <c r="E30" s="8">
         <v>4.49</v>
       </c>
       <c r="F30" s="6">
-        <f t="shared" si="6"/>
-        <v>1373.94</v>
+        <f t="shared" si="8"/>
+        <v>2465.0100000000002</v>
       </c>
       <c r="G30" s="6">
         <f>SUM(F30,F31)</f>
-        <v>1616.94</v>
+        <v>2902.4100000000003</v>
       </c>
       <c r="H30" s="6">
-        <v>1616.94</v>
+        <v>2902.41</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -1288,49 +1288,49 @@
         <v>1</v>
       </c>
       <c r="C31" s="3">
-        <v>5480</v>
+        <v>5660</v>
       </c>
       <c r="D31" s="3">
-        <f t="shared" si="8"/>
-        <v>100</v>
+        <f t="shared" si="9"/>
+        <v>180</v>
       </c>
       <c r="E31" s="9">
         <v>2.4300000000000002</v>
       </c>
       <c r="F31" s="6">
-        <f t="shared" si="6"/>
-        <v>243.00000000000003</v>
+        <f t="shared" si="8"/>
+        <v>437.40000000000003</v>
       </c>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="10">
-        <v>43915</v>
+        <v>43934</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C32" s="3">
-        <v>11380</v>
+        <v>11686</v>
       </c>
       <c r="D32" s="3">
-        <f t="shared" si="8"/>
-        <v>172</v>
+        <f t="shared" ref="D32:D37" si="10">SUM(C32,-C34)</f>
+        <v>306</v>
       </c>
       <c r="E32" s="8">
         <v>4.49</v>
       </c>
       <c r="F32" s="6">
-        <f t="shared" si="6"/>
-        <v>772.28000000000009</v>
+        <f t="shared" si="8"/>
+        <v>1373.94</v>
       </c>
       <c r="G32" s="6">
         <f>SUM(F32,F33)</f>
-        <v>1027.43</v>
+        <v>1616.94</v>
       </c>
       <c r="H32" s="6">
-        <v>1027.43</v>
+        <v>1616.94</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -1339,49 +1339,49 @@
         <v>1</v>
       </c>
       <c r="C33" s="3">
-        <v>5380</v>
+        <v>5480</v>
       </c>
       <c r="D33" s="3">
-        <f t="shared" si="8"/>
-        <v>105</v>
+        <f t="shared" si="10"/>
+        <v>100</v>
       </c>
       <c r="E33" s="9">
         <v>2.4300000000000002</v>
       </c>
       <c r="F33" s="6">
-        <f t="shared" si="6"/>
-        <v>255.15</v>
+        <f t="shared" si="8"/>
+        <v>243.00000000000003</v>
       </c>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="10">
-        <v>43830</v>
+        <v>43915</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C34" s="3">
-        <v>11208</v>
+        <v>11380</v>
       </c>
       <c r="D34" s="3">
-        <f t="shared" si="8"/>
-        <v>566</v>
+        <f t="shared" si="10"/>
+        <v>172</v>
       </c>
       <c r="E34" s="8">
         <v>4.49</v>
       </c>
       <c r="F34" s="6">
-        <f t="shared" si="6"/>
-        <v>2541.34</v>
+        <f t="shared" si="8"/>
+        <v>772.28000000000009</v>
       </c>
       <c r="G34" s="6">
         <f>SUM(F34,F35)</f>
-        <v>3209.59</v>
+        <v>1027.43</v>
       </c>
       <c r="H34" s="6">
-        <v>3209.59</v>
+        <v>1027.43</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -1390,37 +1390,50 @@
         <v>1</v>
       </c>
       <c r="C35" s="3">
-        <v>5275</v>
+        <v>5380</v>
       </c>
       <c r="D35" s="3">
-        <f t="shared" si="8"/>
-        <v>275</v>
+        <f t="shared" si="10"/>
+        <v>105</v>
       </c>
       <c r="E35" s="9">
         <v>2.4300000000000002</v>
       </c>
       <c r="F35" s="6">
-        <f t="shared" si="6"/>
-        <v>668.25</v>
+        <f t="shared" si="8"/>
+        <v>255.15</v>
       </c>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="10">
-        <v>43805</v>
+        <v>43830</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C36" s="3">
-        <v>10642</v>
-      </c>
-      <c r="D36" s="3"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
+        <v>11208</v>
+      </c>
+      <c r="D36" s="3">
+        <f t="shared" si="10"/>
+        <v>566</v>
+      </c>
+      <c r="E36" s="8">
+        <v>4.49</v>
+      </c>
+      <c r="F36" s="6">
+        <f t="shared" si="8"/>
+        <v>2541.34</v>
+      </c>
+      <c r="G36" s="6">
+        <f>SUM(F36,F37)</f>
+        <v>3209.59</v>
+      </c>
+      <c r="H36" s="6">
+        <v>3209.59</v>
+      </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
@@ -1428,35 +1441,73 @@
         <v>1</v>
       </c>
       <c r="C37" s="3">
-        <v>5000</v>
-      </c>
-      <c r="D37" s="3"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="6"/>
+        <v>5275</v>
+      </c>
+      <c r="D37" s="3">
+        <f t="shared" si="10"/>
+        <v>275</v>
+      </c>
+      <c r="E37" s="9">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F37" s="6">
+        <f t="shared" si="8"/>
+        <v>668.25</v>
+      </c>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="3" t="s">
+      <c r="A38" s="10">
+        <v>43805</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" s="3">
+        <v>10642</v>
+      </c>
+      <c r="D38" s="3"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="4"/>
+      <c r="B39" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="3">
+        <v>5000</v>
+      </c>
+      <c r="D39" s="3"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G38" s="6">
-        <f>SUM(G10:G37)</f>
+      <c r="G40" s="6">
+        <f>SUM(G12:G39)</f>
         <v>21294.26</v>
       </c>
-      <c r="H38" s="6">
-        <f>SUM(H10:H37)</f>
+      <c r="H40" s="6">
+        <f>SUM(H12:H39)</f>
         <v>21294.26</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/64ee.xlsx
+++ b/sputnik/personal/ee/64ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -96,7 +96,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -106,6 +106,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -137,7 +143,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -184,6 +190,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -493,10 +502,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -540,32 +549,32 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="12">
-        <v>44459</v>
+      <c r="A2" s="18">
+        <v>44501</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="13">
-        <v>15100</v>
+        <v>15285</v>
       </c>
       <c r="D2" s="13">
         <f t="shared" ref="D2:D3" si="0">SUM(C2,-C4)</f>
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="E2" s="14">
         <v>4.96</v>
       </c>
       <c r="F2" s="15">
         <f t="shared" ref="F2:F3" si="1">D2*E2</f>
-        <v>992</v>
+        <v>917.6</v>
       </c>
       <c r="G2" s="15">
         <f>SUM(F2,F3)</f>
-        <v>1179.5999999999999</v>
+        <v>1105.2</v>
       </c>
       <c r="H2" s="15">
-        <v>1179.5999999999999</v>
+        <v>1105.2</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -574,7 +583,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="13">
-        <v>6880</v>
+        <v>6950</v>
       </c>
       <c r="D3" s="13">
         <f t="shared" si="0"/>
@@ -592,31 +601,31 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
-        <v>44427</v>
+        <v>44459</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="13">
-        <v>14900</v>
+        <v>15100</v>
       </c>
       <c r="D4" s="13">
         <f t="shared" ref="D4:D5" si="2">SUM(C4,-C6)</f>
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E4" s="14">
         <v>4.96</v>
       </c>
       <c r="F4" s="15">
         <f t="shared" ref="F4:F5" si="3">D4*E4</f>
-        <v>496</v>
+        <v>992</v>
       </c>
       <c r="G4" s="15">
         <f>SUM(F4,F5)</f>
-        <v>576.4</v>
+        <v>1179.5999999999999</v>
       </c>
       <c r="H4" s="15">
-        <v>576.4</v>
+        <v>1179.5999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -625,34 +634,34 @@
         <v>1</v>
       </c>
       <c r="C5" s="13">
-        <v>6810</v>
+        <v>6880</v>
       </c>
       <c r="D5" s="13">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="E5" s="17">
         <v>2.68</v>
       </c>
       <c r="F5" s="15">
         <f t="shared" si="3"/>
-        <v>80.400000000000006</v>
+        <v>187.60000000000002</v>
       </c>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
-        <v>44406</v>
+        <v>44427</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="13">
-        <v>14800</v>
+        <v>14900</v>
       </c>
       <c r="D6" s="13">
-        <f t="shared" ref="D6:D13" si="4">SUM(C6,-C8)</f>
+        <f t="shared" ref="D6:D7" si="4">SUM(C6,-C8)</f>
         <v>100</v>
       </c>
       <c r="E6" s="14">
@@ -676,7 +685,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="13">
-        <v>6780</v>
+        <v>6810</v>
       </c>
       <c r="D7" s="13">
         <f t="shared" si="4"/>
@@ -694,31 +703,31 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
-        <v>44369</v>
+        <v>44406</v>
       </c>
       <c r="B8" s="13" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="13">
-        <v>14700</v>
+        <v>14800</v>
       </c>
       <c r="D8" s="13">
-        <f t="shared" si="4"/>
-        <v>150</v>
+        <f t="shared" ref="D8:D15" si="6">SUM(C8,-C10)</f>
+        <v>100</v>
       </c>
       <c r="E8" s="14">
-        <v>4.71</v>
+        <v>4.96</v>
       </c>
       <c r="F8" s="15">
-        <f t="shared" ref="F8:F9" si="6">D8*E8</f>
-        <v>706.5</v>
+        <f t="shared" ref="F8:F9" si="7">D8*E8</f>
+        <v>496</v>
       </c>
       <c r="G8" s="15">
         <f>SUM(F8,F9)</f>
-        <v>859.5</v>
+        <v>576.4</v>
       </c>
       <c r="H8" s="15">
-        <v>859.5</v>
+        <v>576.4</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -727,49 +736,49 @@
         <v>1</v>
       </c>
       <c r="C9" s="13">
-        <v>6750</v>
+        <v>6780</v>
       </c>
       <c r="D9" s="13">
-        <f t="shared" si="4"/>
-        <v>60</v>
+        <f t="shared" si="6"/>
+        <v>30</v>
       </c>
       <c r="E9" s="17">
-        <v>2.5499999999999998</v>
+        <v>2.68</v>
       </c>
       <c r="F9" s="15">
-        <f t="shared" si="6"/>
-        <v>153</v>
+        <f t="shared" si="7"/>
+        <v>80.400000000000006</v>
       </c>
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
-        <v>44340</v>
+        <v>44369</v>
       </c>
       <c r="B10" s="13" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="13">
-        <v>14550</v>
+        <v>14700</v>
       </c>
       <c r="D10" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>150</v>
       </c>
       <c r="E10" s="14">
         <v>4.71</v>
       </c>
       <c r="F10" s="15">
-        <f t="shared" ref="F10:F11" si="7">D10*E10</f>
+        <f t="shared" ref="F10:F11" si="8">D10*E10</f>
         <v>706.5</v>
       </c>
       <c r="G10" s="15">
         <f>SUM(F10,F11)</f>
-        <v>910.5</v>
+        <v>859.5</v>
       </c>
       <c r="H10" s="15">
-        <v>910.5</v>
+        <v>859.5</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -778,49 +787,49 @@
         <v>1</v>
       </c>
       <c r="C11" s="13">
-        <v>6690</v>
+        <v>6750</v>
       </c>
       <c r="D11" s="13">
-        <f t="shared" si="4"/>
-        <v>80</v>
+        <f t="shared" si="6"/>
+        <v>60</v>
       </c>
       <c r="E11" s="17">
         <v>2.5499999999999998</v>
       </c>
       <c r="F11" s="15">
-        <f t="shared" si="7"/>
-        <v>204</v>
+        <f t="shared" si="8"/>
+        <v>153</v>
       </c>
       <c r="G11" s="15"/>
       <c r="H11" s="15"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
-        <v>44308</v>
+        <v>44340</v>
       </c>
       <c r="B12" s="13" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="13">
-        <v>14400</v>
+        <v>14550</v>
       </c>
       <c r="D12" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>150</v>
       </c>
       <c r="E12" s="14">
         <v>4.71</v>
       </c>
       <c r="F12" s="15">
-        <f t="shared" ref="F12:F37" si="8">D12*E12</f>
+        <f t="shared" ref="F12:F13" si="9">D12*E12</f>
         <v>706.5</v>
       </c>
       <c r="G12" s="15">
         <f>SUM(F12,F13)</f>
-        <v>859.5</v>
+        <v>910.5</v>
       </c>
       <c r="H12" s="15">
-        <v>859.5</v>
+        <v>910.5</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -829,100 +838,100 @@
         <v>1</v>
       </c>
       <c r="C13" s="13">
-        <v>6610</v>
+        <v>6690</v>
       </c>
       <c r="D13" s="13">
-        <f t="shared" si="4"/>
-        <v>60</v>
+        <f t="shared" si="6"/>
+        <v>80</v>
       </c>
       <c r="E13" s="17">
         <v>2.5499999999999998</v>
       </c>
       <c r="F13" s="15">
-        <f t="shared" si="8"/>
-        <v>153</v>
+        <f t="shared" si="9"/>
+        <v>204</v>
       </c>
       <c r="G13" s="15"/>
       <c r="H13" s="15"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="10">
-        <v>44260</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="3">
-        <v>14250</v>
-      </c>
-      <c r="D14" s="3">
-        <f t="shared" ref="D14:D31" si="9">SUM(C14,-C16)</f>
-        <v>250</v>
-      </c>
-      <c r="E14" s="8">
+      <c r="A14" s="12">
+        <v>44308</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="13">
+        <v>14400</v>
+      </c>
+      <c r="D14" s="13">
+        <f t="shared" si="6"/>
+        <v>150</v>
+      </c>
+      <c r="E14" s="14">
         <v>4.71</v>
       </c>
-      <c r="F14" s="6">
-        <f t="shared" si="8"/>
-        <v>1177.5</v>
-      </c>
-      <c r="G14" s="6">
+      <c r="F14" s="15">
+        <f t="shared" ref="F14:F39" si="10">D14*E14</f>
+        <v>706.5</v>
+      </c>
+      <c r="G14" s="15">
         <f>SUM(F14,F15)</f>
-        <v>1305</v>
-      </c>
-      <c r="H14" s="6">
-        <v>1305</v>
+        <v>859.5</v>
+      </c>
+      <c r="H14" s="15">
+        <v>859.5</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="3">
-        <v>6550</v>
-      </c>
-      <c r="D15" s="3">
-        <f t="shared" si="9"/>
-        <v>50</v>
-      </c>
-      <c r="E15" s="9">
+      <c r="A15" s="16"/>
+      <c r="B15" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="13">
+        <v>6610</v>
+      </c>
+      <c r="D15" s="13">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="E15" s="17">
         <v>2.5499999999999998</v>
       </c>
-      <c r="F15" s="6">
-        <f t="shared" si="8"/>
-        <v>127.49999999999999</v>
-      </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
+      <c r="F15" s="15">
+        <f t="shared" si="10"/>
+        <v>153</v>
+      </c>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
-        <v>44238</v>
+        <v>44260</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="3">
-        <v>14000</v>
+        <v>14250</v>
       </c>
       <c r="D16" s="3">
-        <f t="shared" si="9"/>
-        <v>200</v>
+        <f t="shared" ref="D16:D33" si="11">SUM(C16,-C18)</f>
+        <v>250</v>
       </c>
       <c r="E16" s="8">
         <v>4.71</v>
       </c>
       <c r="F16" s="6">
-        <f t="shared" si="8"/>
-        <v>942</v>
+        <f t="shared" si="10"/>
+        <v>1177.5</v>
       </c>
       <c r="G16" s="6">
         <f>SUM(F16,F17)</f>
-        <v>1197</v>
+        <v>1305</v>
       </c>
       <c r="H16" s="6">
-        <v>1197</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -931,49 +940,49 @@
         <v>1</v>
       </c>
       <c r="C17" s="3">
-        <v>6500</v>
+        <v>6550</v>
       </c>
       <c r="D17" s="3">
-        <f t="shared" si="9"/>
-        <v>100</v>
+        <f t="shared" si="11"/>
+        <v>50</v>
       </c>
       <c r="E17" s="9">
         <v>2.5499999999999998</v>
       </c>
       <c r="F17" s="6">
-        <f t="shared" si="8"/>
-        <v>254.99999999999997</v>
+        <f t="shared" si="10"/>
+        <v>127.49999999999999</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
-        <v>44207</v>
+        <v>44238</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C18" s="3">
-        <v>13800</v>
+        <v>14000</v>
       </c>
       <c r="D18" s="3">
-        <f t="shared" si="9"/>
-        <v>300</v>
+        <f t="shared" si="11"/>
+        <v>200</v>
       </c>
       <c r="E18" s="8">
         <v>4.71</v>
       </c>
       <c r="F18" s="6">
-        <f t="shared" si="8"/>
-        <v>1413</v>
+        <f t="shared" si="10"/>
+        <v>942</v>
       </c>
       <c r="G18" s="6">
         <f>SUM(F18,F19)</f>
-        <v>2050.5</v>
+        <v>1197</v>
       </c>
       <c r="H18" s="6">
-        <v>2050.5</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -982,49 +991,49 @@
         <v>1</v>
       </c>
       <c r="C19" s="3">
-        <v>6400</v>
+        <v>6500</v>
       </c>
       <c r="D19" s="3">
-        <f t="shared" si="9"/>
-        <v>250</v>
+        <f t="shared" si="11"/>
+        <v>100</v>
       </c>
       <c r="E19" s="9">
         <v>2.5499999999999998</v>
       </c>
       <c r="F19" s="6">
-        <f t="shared" si="8"/>
-        <v>637.5</v>
+        <f t="shared" si="10"/>
+        <v>254.99999999999997</v>
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
-        <v>44173</v>
+        <v>44207</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C20" s="3">
-        <v>13500</v>
+        <v>13800</v>
       </c>
       <c r="D20" s="3">
-        <f t="shared" si="9"/>
-        <v>250</v>
+        <f t="shared" si="11"/>
+        <v>300</v>
       </c>
       <c r="E20" s="8">
         <v>4.71</v>
       </c>
       <c r="F20" s="6">
-        <f t="shared" si="8"/>
-        <v>1177.5</v>
+        <f t="shared" si="10"/>
+        <v>1413</v>
       </c>
       <c r="G20" s="6">
         <f>SUM(F20,F21)</f>
-        <v>1662</v>
+        <v>2050.5</v>
       </c>
       <c r="H20" s="6">
-        <v>1662</v>
+        <v>2050.5</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1033,49 +1042,49 @@
         <v>1</v>
       </c>
       <c r="C21" s="3">
-        <v>6150</v>
+        <v>6400</v>
       </c>
       <c r="D21" s="3">
-        <f t="shared" si="9"/>
-        <v>190</v>
+        <f t="shared" si="11"/>
+        <v>250</v>
       </c>
       <c r="E21" s="9">
         <v>2.5499999999999998</v>
       </c>
       <c r="F21" s="6">
-        <f t="shared" si="8"/>
-        <v>484.49999999999994</v>
+        <f t="shared" si="10"/>
+        <v>637.5</v>
       </c>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
-        <v>44140</v>
+        <v>44173</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C22" s="3">
-        <v>13250</v>
+        <v>13500</v>
       </c>
       <c r="D22" s="3">
-        <f t="shared" si="9"/>
-        <v>280</v>
+        <f t="shared" si="11"/>
+        <v>250</v>
       </c>
       <c r="E22" s="8">
         <v>4.71</v>
       </c>
       <c r="F22" s="6">
-        <f t="shared" si="8"/>
-        <v>1318.8</v>
+        <f t="shared" si="10"/>
+        <v>1177.5</v>
       </c>
       <c r="G22" s="6">
         <f>SUM(F22,F23)</f>
-        <v>1446.3</v>
+        <v>1662</v>
       </c>
       <c r="H22" s="6">
-        <v>1446.3</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1084,49 +1093,49 @@
         <v>1</v>
       </c>
       <c r="C23" s="3">
-        <v>5960</v>
+        <v>6150</v>
       </c>
       <c r="D23" s="3">
-        <f t="shared" si="9"/>
-        <v>50</v>
+        <f t="shared" si="11"/>
+        <v>190</v>
       </c>
       <c r="E23" s="9">
         <v>2.5499999999999998</v>
       </c>
       <c r="F23" s="6">
-        <f t="shared" si="8"/>
-        <v>127.49999999999999</v>
+        <f t="shared" si="10"/>
+        <v>484.49999999999994</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
-        <v>44090</v>
+        <v>44140</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C24" s="3">
-        <v>12970</v>
+        <v>13250</v>
       </c>
       <c r="D24" s="3">
-        <f t="shared" si="9"/>
-        <v>240</v>
+        <f t="shared" si="11"/>
+        <v>280</v>
       </c>
       <c r="E24" s="8">
         <v>4.71</v>
       </c>
       <c r="F24" s="6">
-        <f t="shared" si="8"/>
-        <v>1130.4000000000001</v>
+        <f t="shared" si="10"/>
+        <v>1318.8</v>
       </c>
       <c r="G24" s="6">
         <f>SUM(F24,F25)</f>
-        <v>1334.4</v>
+        <v>1446.3</v>
       </c>
       <c r="H24" s="6">
-        <v>1334.4</v>
+        <v>1446.3</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1135,49 +1144,49 @@
         <v>1</v>
       </c>
       <c r="C25" s="3">
-        <v>5910</v>
+        <v>5960</v>
       </c>
       <c r="D25" s="3">
-        <f t="shared" si="9"/>
-        <v>80</v>
+        <f t="shared" si="11"/>
+        <v>50</v>
       </c>
       <c r="E25" s="9">
         <v>2.5499999999999998</v>
       </c>
       <c r="F25" s="6">
-        <f t="shared" si="8"/>
-        <v>204</v>
+        <f t="shared" si="10"/>
+        <v>127.49999999999999</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="10">
-        <v>44053</v>
+        <v>44090</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C26" s="3">
-        <v>12730</v>
+        <v>12970</v>
       </c>
       <c r="D26" s="3">
-        <f t="shared" si="9"/>
-        <v>185</v>
+        <f t="shared" si="11"/>
+        <v>240</v>
       </c>
       <c r="E26" s="8">
         <v>4.71</v>
       </c>
       <c r="F26" s="6">
-        <f t="shared" si="8"/>
-        <v>871.35</v>
+        <f t="shared" si="10"/>
+        <v>1130.4000000000001</v>
       </c>
       <c r="G26" s="6">
         <f>SUM(F26,F27)</f>
-        <v>1016.7</v>
+        <v>1334.4</v>
       </c>
       <c r="H26" s="6">
-        <v>1016.7</v>
+        <v>1334.4</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1186,49 +1195,49 @@
         <v>1</v>
       </c>
       <c r="C27" s="3">
-        <v>5830</v>
+        <v>5910</v>
       </c>
       <c r="D27" s="3">
-        <f t="shared" si="9"/>
-        <v>57</v>
+        <f t="shared" si="11"/>
+        <v>80</v>
       </c>
       <c r="E27" s="9">
         <v>2.5499999999999998</v>
       </c>
       <c r="F27" s="6">
-        <f t="shared" si="8"/>
-        <v>145.35</v>
+        <f t="shared" si="10"/>
+        <v>204</v>
       </c>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="10">
-        <v>44005</v>
+        <v>44053</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C28" s="3">
-        <v>12545</v>
+        <v>12730</v>
       </c>
       <c r="D28" s="3">
-        <f t="shared" si="9"/>
-        <v>310</v>
+        <f t="shared" si="11"/>
+        <v>185</v>
       </c>
       <c r="E28" s="8">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F28" s="6">
-        <f t="shared" si="8"/>
-        <v>1391.9</v>
+        <f t="shared" si="10"/>
+        <v>871.35</v>
       </c>
       <c r="G28" s="6">
         <f>SUM(F28,F29)</f>
-        <v>1666.4900000000002</v>
+        <v>1016.7</v>
       </c>
       <c r="H28" s="6">
-        <v>1666.49</v>
+        <v>1016.7</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1237,49 +1246,49 @@
         <v>1</v>
       </c>
       <c r="C29" s="3">
-        <v>5773</v>
+        <v>5830</v>
       </c>
       <c r="D29" s="3">
-        <f t="shared" si="9"/>
-        <v>113</v>
+        <f t="shared" si="11"/>
+        <v>57</v>
       </c>
       <c r="E29" s="9">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F29" s="6">
-        <f t="shared" si="8"/>
-        <v>274.59000000000003</v>
+        <f t="shared" si="10"/>
+        <v>145.35</v>
       </c>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="10">
-        <v>43980</v>
+        <v>44005</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C30" s="3">
-        <v>12235</v>
+        <v>12545</v>
       </c>
       <c r="D30" s="3">
-        <f t="shared" si="9"/>
-        <v>549</v>
+        <f t="shared" si="11"/>
+        <v>310</v>
       </c>
       <c r="E30" s="8">
         <v>4.49</v>
       </c>
       <c r="F30" s="6">
-        <f t="shared" si="8"/>
-        <v>2465.0100000000002</v>
+        <f t="shared" si="10"/>
+        <v>1391.9</v>
       </c>
       <c r="G30" s="6">
         <f>SUM(F30,F31)</f>
-        <v>2902.4100000000003</v>
+        <v>1666.4900000000002</v>
       </c>
       <c r="H30" s="6">
-        <v>2902.41</v>
+        <v>1666.49</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -1288,49 +1297,49 @@
         <v>1</v>
       </c>
       <c r="C31" s="3">
-        <v>5660</v>
+        <v>5773</v>
       </c>
       <c r="D31" s="3">
-        <f t="shared" si="9"/>
-        <v>180</v>
+        <f t="shared" si="11"/>
+        <v>113</v>
       </c>
       <c r="E31" s="9">
         <v>2.4300000000000002</v>
       </c>
       <c r="F31" s="6">
-        <f t="shared" si="8"/>
-        <v>437.40000000000003</v>
+        <f t="shared" si="10"/>
+        <v>274.59000000000003</v>
       </c>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="10">
-        <v>43934</v>
+        <v>43980</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C32" s="3">
-        <v>11686</v>
+        <v>12235</v>
       </c>
       <c r="D32" s="3">
-        <f t="shared" ref="D32:D37" si="10">SUM(C32,-C34)</f>
-        <v>306</v>
+        <f t="shared" si="11"/>
+        <v>549</v>
       </c>
       <c r="E32" s="8">
         <v>4.49</v>
       </c>
       <c r="F32" s="6">
-        <f t="shared" si="8"/>
-        <v>1373.94</v>
+        <f t="shared" si="10"/>
+        <v>2465.0100000000002</v>
       </c>
       <c r="G32" s="6">
         <f>SUM(F32,F33)</f>
-        <v>1616.94</v>
+        <v>2902.4100000000003</v>
       </c>
       <c r="H32" s="6">
-        <v>1616.94</v>
+        <v>2902.41</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -1339,49 +1348,49 @@
         <v>1</v>
       </c>
       <c r="C33" s="3">
-        <v>5480</v>
+        <v>5660</v>
       </c>
       <c r="D33" s="3">
-        <f t="shared" si="10"/>
-        <v>100</v>
+        <f t="shared" si="11"/>
+        <v>180</v>
       </c>
       <c r="E33" s="9">
         <v>2.4300000000000002</v>
       </c>
       <c r="F33" s="6">
-        <f t="shared" si="8"/>
-        <v>243.00000000000003</v>
+        <f t="shared" si="10"/>
+        <v>437.40000000000003</v>
       </c>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="10">
-        <v>43915</v>
+        <v>43934</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C34" s="3">
-        <v>11380</v>
+        <v>11686</v>
       </c>
       <c r="D34" s="3">
-        <f t="shared" si="10"/>
-        <v>172</v>
+        <f t="shared" ref="D34:D39" si="12">SUM(C34,-C36)</f>
+        <v>306</v>
       </c>
       <c r="E34" s="8">
         <v>4.49</v>
       </c>
       <c r="F34" s="6">
-        <f t="shared" si="8"/>
-        <v>772.28000000000009</v>
+        <f t="shared" si="10"/>
+        <v>1373.94</v>
       </c>
       <c r="G34" s="6">
         <f>SUM(F34,F35)</f>
-        <v>1027.43</v>
+        <v>1616.94</v>
       </c>
       <c r="H34" s="6">
-        <v>1027.43</v>
+        <v>1616.94</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -1390,49 +1399,49 @@
         <v>1</v>
       </c>
       <c r="C35" s="3">
-        <v>5380</v>
+        <v>5480</v>
       </c>
       <c r="D35" s="3">
-        <f t="shared" si="10"/>
-        <v>105</v>
+        <f t="shared" si="12"/>
+        <v>100</v>
       </c>
       <c r="E35" s="9">
         <v>2.4300000000000002</v>
       </c>
       <c r="F35" s="6">
-        <f t="shared" si="8"/>
-        <v>255.15</v>
+        <f t="shared" si="10"/>
+        <v>243.00000000000003</v>
       </c>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="10">
-        <v>43830</v>
+        <v>43915</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C36" s="3">
-        <v>11208</v>
+        <v>11380</v>
       </c>
       <c r="D36" s="3">
-        <f t="shared" si="10"/>
-        <v>566</v>
+        <f t="shared" si="12"/>
+        <v>172</v>
       </c>
       <c r="E36" s="8">
         <v>4.49</v>
       </c>
       <c r="F36" s="6">
-        <f t="shared" si="8"/>
-        <v>2541.34</v>
+        <f t="shared" si="10"/>
+        <v>772.28000000000009</v>
       </c>
       <c r="G36" s="6">
         <f>SUM(F36,F37)</f>
-        <v>3209.59</v>
+        <v>1027.43</v>
       </c>
       <c r="H36" s="6">
-        <v>3209.59</v>
+        <v>1027.43</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -1441,37 +1450,50 @@
         <v>1</v>
       </c>
       <c r="C37" s="3">
-        <v>5275</v>
+        <v>5380</v>
       </c>
       <c r="D37" s="3">
-        <f t="shared" si="10"/>
-        <v>275</v>
+        <f t="shared" si="12"/>
+        <v>105</v>
       </c>
       <c r="E37" s="9">
         <v>2.4300000000000002</v>
       </c>
       <c r="F37" s="6">
-        <f t="shared" si="8"/>
-        <v>668.25</v>
+        <f t="shared" si="10"/>
+        <v>255.15</v>
       </c>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="10">
-        <v>43805</v>
+        <v>43830</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C38" s="3">
-        <v>10642</v>
-      </c>
-      <c r="D38" s="3"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
+        <v>11208</v>
+      </c>
+      <c r="D38" s="3">
+        <f t="shared" si="12"/>
+        <v>566</v>
+      </c>
+      <c r="E38" s="8">
+        <v>4.49</v>
+      </c>
+      <c r="F38" s="6">
+        <f t="shared" si="10"/>
+        <v>2541.34</v>
+      </c>
+      <c r="G38" s="6">
+        <f>SUM(F38,F39)</f>
+        <v>3209.59</v>
+      </c>
+      <c r="H38" s="6">
+        <v>3209.59</v>
+      </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
@@ -1479,35 +1501,73 @@
         <v>1</v>
       </c>
       <c r="C39" s="3">
-        <v>5000</v>
-      </c>
-      <c r="D39" s="3"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="6"/>
+        <v>5275</v>
+      </c>
+      <c r="D39" s="3">
+        <f t="shared" si="12"/>
+        <v>275</v>
+      </c>
+      <c r="E39" s="9">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F39" s="6">
+        <f t="shared" si="10"/>
+        <v>668.25</v>
+      </c>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="3" t="s">
+      <c r="A40" s="10">
+        <v>43805</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" s="3">
+        <v>10642</v>
+      </c>
+      <c r="D40" s="3"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="4"/>
+      <c r="B41" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="3">
+        <v>5000</v>
+      </c>
+      <c r="D41" s="3"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G40" s="6">
-        <f>SUM(G12:G39)</f>
+      <c r="G42" s="6">
+        <f>SUM(G14:G41)</f>
         <v>21294.26</v>
       </c>
-      <c r="H40" s="6">
-        <f>SUM(H12:H39)</f>
+      <c r="H42" s="6">
+        <f>SUM(H14:H41)</f>
         <v>21294.26</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/64ee.xlsx
+++ b/sputnik/personal/ee/64ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -502,10 +502,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -550,31 +550,31 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="18">
-        <v>44501</v>
+        <v>44539</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="13">
-        <v>15285</v>
+        <v>15465</v>
       </c>
       <c r="D2" s="13">
         <f t="shared" ref="D2:D3" si="0">SUM(C2,-C4)</f>
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E2" s="14">
         <v>4.96</v>
       </c>
       <c r="F2" s="15">
         <f t="shared" ref="F2:F3" si="1">D2*E2</f>
-        <v>917.6</v>
+        <v>892.8</v>
       </c>
       <c r="G2" s="15">
         <f>SUM(F2,F3)</f>
-        <v>1105.2</v>
+        <v>1348.4</v>
       </c>
       <c r="H2" s="15">
-        <v>1105.2</v>
+        <v>1348.4</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -583,49 +583,49 @@
         <v>1</v>
       </c>
       <c r="C3" s="13">
-        <v>6950</v>
+        <v>7120</v>
       </c>
       <c r="D3" s="13">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="E3" s="17">
         <v>2.68</v>
       </c>
       <c r="F3" s="15">
         <f t="shared" si="1"/>
-        <v>187.60000000000002</v>
+        <v>455.6</v>
       </c>
       <c r="G3" s="15"/>
       <c r="H3" s="15"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
-        <v>44459</v>
+        <v>44501</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="13">
-        <v>15100</v>
+        <v>15285</v>
       </c>
       <c r="D4" s="13">
         <f t="shared" ref="D4:D5" si="2">SUM(C4,-C6)</f>
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="E4" s="14">
         <v>4.96</v>
       </c>
       <c r="F4" s="15">
         <f t="shared" ref="F4:F5" si="3">D4*E4</f>
-        <v>992</v>
+        <v>917.6</v>
       </c>
       <c r="G4" s="15">
         <f>SUM(F4,F5)</f>
-        <v>1179.5999999999999</v>
+        <v>1105.2</v>
       </c>
       <c r="H4" s="15">
-        <v>1179.5999999999999</v>
+        <v>1105.2</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -634,7 +634,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="13">
-        <v>6880</v>
+        <v>6950</v>
       </c>
       <c r="D5" s="13">
         <f t="shared" si="2"/>
@@ -652,31 +652,31 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
-        <v>44427</v>
+        <v>44459</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="13">
-        <v>14900</v>
+        <v>15100</v>
       </c>
       <c r="D6" s="13">
         <f t="shared" ref="D6:D7" si="4">SUM(C6,-C8)</f>
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E6" s="14">
         <v>4.96</v>
       </c>
       <c r="F6" s="15">
         <f t="shared" ref="F6:F7" si="5">D6*E6</f>
-        <v>496</v>
+        <v>992</v>
       </c>
       <c r="G6" s="15">
         <f>SUM(F6,F7)</f>
-        <v>576.4</v>
+        <v>1179.5999999999999</v>
       </c>
       <c r="H6" s="15">
-        <v>576.4</v>
+        <v>1179.5999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -685,34 +685,34 @@
         <v>1</v>
       </c>
       <c r="C7" s="13">
-        <v>6810</v>
+        <v>6880</v>
       </c>
       <c r="D7" s="13">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="E7" s="17">
         <v>2.68</v>
       </c>
       <c r="F7" s="15">
         <f t="shared" si="5"/>
-        <v>80.400000000000006</v>
+        <v>187.60000000000002</v>
       </c>
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
-        <v>44406</v>
+        <v>44427</v>
       </c>
       <c r="B8" s="13" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="13">
-        <v>14800</v>
+        <v>14900</v>
       </c>
       <c r="D8" s="13">
-        <f t="shared" ref="D8:D15" si="6">SUM(C8,-C10)</f>
+        <f t="shared" ref="D8:D9" si="6">SUM(C8,-C10)</f>
         <v>100</v>
       </c>
       <c r="E8" s="14">
@@ -736,7 +736,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="13">
-        <v>6780</v>
+        <v>6810</v>
       </c>
       <c r="D9" s="13">
         <f t="shared" si="6"/>
@@ -754,31 +754,31 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
-        <v>44369</v>
+        <v>44406</v>
       </c>
       <c r="B10" s="13" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="13">
-        <v>14700</v>
+        <v>14800</v>
       </c>
       <c r="D10" s="13">
-        <f t="shared" si="6"/>
-        <v>150</v>
+        <f t="shared" ref="D10:D17" si="8">SUM(C10,-C12)</f>
+        <v>100</v>
       </c>
       <c r="E10" s="14">
-        <v>4.71</v>
+        <v>4.96</v>
       </c>
       <c r="F10" s="15">
-        <f t="shared" ref="F10:F11" si="8">D10*E10</f>
-        <v>706.5</v>
+        <f t="shared" ref="F10:F11" si="9">D10*E10</f>
+        <v>496</v>
       </c>
       <c r="G10" s="15">
         <f>SUM(F10,F11)</f>
-        <v>859.5</v>
+        <v>576.4</v>
       </c>
       <c r="H10" s="15">
-        <v>859.5</v>
+        <v>576.4</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -787,49 +787,49 @@
         <v>1</v>
       </c>
       <c r="C11" s="13">
-        <v>6750</v>
+        <v>6780</v>
       </c>
       <c r="D11" s="13">
-        <f t="shared" si="6"/>
-        <v>60</v>
+        <f t="shared" si="8"/>
+        <v>30</v>
       </c>
       <c r="E11" s="17">
-        <v>2.5499999999999998</v>
+        <v>2.68</v>
       </c>
       <c r="F11" s="15">
-        <f t="shared" si="8"/>
-        <v>153</v>
+        <f t="shared" si="9"/>
+        <v>80.400000000000006</v>
       </c>
       <c r="G11" s="15"/>
       <c r="H11" s="15"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
-        <v>44340</v>
+        <v>44369</v>
       </c>
       <c r="B12" s="13" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="13">
-        <v>14550</v>
+        <v>14700</v>
       </c>
       <c r="D12" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>150</v>
       </c>
       <c r="E12" s="14">
         <v>4.71</v>
       </c>
       <c r="F12" s="15">
-        <f t="shared" ref="F12:F13" si="9">D12*E12</f>
+        <f t="shared" ref="F12:F13" si="10">D12*E12</f>
         <v>706.5</v>
       </c>
       <c r="G12" s="15">
         <f>SUM(F12,F13)</f>
-        <v>910.5</v>
+        <v>859.5</v>
       </c>
       <c r="H12" s="15">
-        <v>910.5</v>
+        <v>859.5</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -838,49 +838,49 @@
         <v>1</v>
       </c>
       <c r="C13" s="13">
-        <v>6690</v>
+        <v>6750</v>
       </c>
       <c r="D13" s="13">
-        <f t="shared" si="6"/>
-        <v>80</v>
+        <f t="shared" si="8"/>
+        <v>60</v>
       </c>
       <c r="E13" s="17">
         <v>2.5499999999999998</v>
       </c>
       <c r="F13" s="15">
-        <f t="shared" si="9"/>
-        <v>204</v>
+        <f t="shared" si="10"/>
+        <v>153</v>
       </c>
       <c r="G13" s="15"/>
       <c r="H13" s="15"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
-        <v>44308</v>
+        <v>44340</v>
       </c>
       <c r="B14" s="13" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="13">
-        <v>14400</v>
+        <v>14550</v>
       </c>
       <c r="D14" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>150</v>
       </c>
       <c r="E14" s="14">
         <v>4.71</v>
       </c>
       <c r="F14" s="15">
-        <f t="shared" ref="F14:F39" si="10">D14*E14</f>
+        <f t="shared" ref="F14:F15" si="11">D14*E14</f>
         <v>706.5</v>
       </c>
       <c r="G14" s="15">
         <f>SUM(F14,F15)</f>
-        <v>859.5</v>
+        <v>910.5</v>
       </c>
       <c r="H14" s="15">
-        <v>859.5</v>
+        <v>910.5</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -889,100 +889,100 @@
         <v>1</v>
       </c>
       <c r="C15" s="13">
-        <v>6610</v>
+        <v>6690</v>
       </c>
       <c r="D15" s="13">
-        <f t="shared" si="6"/>
-        <v>60</v>
+        <f t="shared" si="8"/>
+        <v>80</v>
       </c>
       <c r="E15" s="17">
         <v>2.5499999999999998</v>
       </c>
       <c r="F15" s="15">
-        <f t="shared" si="10"/>
-        <v>153</v>
+        <f t="shared" si="11"/>
+        <v>204</v>
       </c>
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="10">
-        <v>44260</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="3">
-        <v>14250</v>
-      </c>
-      <c r="D16" s="3">
-        <f t="shared" ref="D16:D33" si="11">SUM(C16,-C18)</f>
-        <v>250</v>
-      </c>
-      <c r="E16" s="8">
+      <c r="A16" s="12">
+        <v>44308</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="13">
+        <v>14400</v>
+      </c>
+      <c r="D16" s="13">
+        <f t="shared" si="8"/>
+        <v>150</v>
+      </c>
+      <c r="E16" s="14">
         <v>4.71</v>
       </c>
-      <c r="F16" s="6">
-        <f t="shared" si="10"/>
-        <v>1177.5</v>
-      </c>
-      <c r="G16" s="6">
+      <c r="F16" s="15">
+        <f t="shared" ref="F16:F41" si="12">D16*E16</f>
+        <v>706.5</v>
+      </c>
+      <c r="G16" s="15">
         <f>SUM(F16,F17)</f>
-        <v>1305</v>
-      </c>
-      <c r="H16" s="6">
-        <v>1305</v>
+        <v>859.5</v>
+      </c>
+      <c r="H16" s="15">
+        <v>859.5</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="3">
-        <v>6550</v>
-      </c>
-      <c r="D17" s="3">
-        <f t="shared" si="11"/>
-        <v>50</v>
-      </c>
-      <c r="E17" s="9">
+      <c r="A17" s="16"/>
+      <c r="B17" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="13">
+        <v>6610</v>
+      </c>
+      <c r="D17" s="13">
+        <f t="shared" si="8"/>
+        <v>60</v>
+      </c>
+      <c r="E17" s="17">
         <v>2.5499999999999998</v>
       </c>
-      <c r="F17" s="6">
-        <f t="shared" si="10"/>
-        <v>127.49999999999999</v>
-      </c>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
+      <c r="F17" s="15">
+        <f t="shared" si="12"/>
+        <v>153</v>
+      </c>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
-        <v>44238</v>
+        <v>44260</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C18" s="3">
-        <v>14000</v>
+        <v>14250</v>
       </c>
       <c r="D18" s="3">
-        <f t="shared" si="11"/>
-        <v>200</v>
+        <f t="shared" ref="D18:D35" si="13">SUM(C18,-C20)</f>
+        <v>250</v>
       </c>
       <c r="E18" s="8">
         <v>4.71</v>
       </c>
       <c r="F18" s="6">
-        <f t="shared" si="10"/>
-        <v>942</v>
+        <f t="shared" si="12"/>
+        <v>1177.5</v>
       </c>
       <c r="G18" s="6">
         <f>SUM(F18,F19)</f>
-        <v>1197</v>
+        <v>1305</v>
       </c>
       <c r="H18" s="6">
-        <v>1197</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -991,49 +991,49 @@
         <v>1</v>
       </c>
       <c r="C19" s="3">
-        <v>6500</v>
+        <v>6550</v>
       </c>
       <c r="D19" s="3">
-        <f t="shared" si="11"/>
-        <v>100</v>
+        <f t="shared" si="13"/>
+        <v>50</v>
       </c>
       <c r="E19" s="9">
         <v>2.5499999999999998</v>
       </c>
       <c r="F19" s="6">
-        <f t="shared" si="10"/>
-        <v>254.99999999999997</v>
+        <f t="shared" si="12"/>
+        <v>127.49999999999999</v>
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
-        <v>44207</v>
+        <v>44238</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C20" s="3">
-        <v>13800</v>
+        <v>14000</v>
       </c>
       <c r="D20" s="3">
-        <f t="shared" si="11"/>
-        <v>300</v>
+        <f t="shared" si="13"/>
+        <v>200</v>
       </c>
       <c r="E20" s="8">
         <v>4.71</v>
       </c>
       <c r="F20" s="6">
-        <f t="shared" si="10"/>
-        <v>1413</v>
+        <f t="shared" si="12"/>
+        <v>942</v>
       </c>
       <c r="G20" s="6">
         <f>SUM(F20,F21)</f>
-        <v>2050.5</v>
+        <v>1197</v>
       </c>
       <c r="H20" s="6">
-        <v>2050.5</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1042,49 +1042,49 @@
         <v>1</v>
       </c>
       <c r="C21" s="3">
-        <v>6400</v>
+        <v>6500</v>
       </c>
       <c r="D21" s="3">
-        <f t="shared" si="11"/>
-        <v>250</v>
+        <f t="shared" si="13"/>
+        <v>100</v>
       </c>
       <c r="E21" s="9">
         <v>2.5499999999999998</v>
       </c>
       <c r="F21" s="6">
-        <f t="shared" si="10"/>
-        <v>637.5</v>
+        <f t="shared" si="12"/>
+        <v>254.99999999999997</v>
       </c>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
-        <v>44173</v>
+        <v>44207</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C22" s="3">
-        <v>13500</v>
+        <v>13800</v>
       </c>
       <c r="D22" s="3">
-        <f t="shared" si="11"/>
-        <v>250</v>
+        <f t="shared" si="13"/>
+        <v>300</v>
       </c>
       <c r="E22" s="8">
         <v>4.71</v>
       </c>
       <c r="F22" s="6">
-        <f t="shared" si="10"/>
-        <v>1177.5</v>
+        <f t="shared" si="12"/>
+        <v>1413</v>
       </c>
       <c r="G22" s="6">
         <f>SUM(F22,F23)</f>
-        <v>1662</v>
+        <v>2050.5</v>
       </c>
       <c r="H22" s="6">
-        <v>1662</v>
+        <v>2050.5</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1093,49 +1093,49 @@
         <v>1</v>
       </c>
       <c r="C23" s="3">
-        <v>6150</v>
+        <v>6400</v>
       </c>
       <c r="D23" s="3">
-        <f t="shared" si="11"/>
-        <v>190</v>
+        <f t="shared" si="13"/>
+        <v>250</v>
       </c>
       <c r="E23" s="9">
         <v>2.5499999999999998</v>
       </c>
       <c r="F23" s="6">
-        <f t="shared" si="10"/>
-        <v>484.49999999999994</v>
+        <f t="shared" si="12"/>
+        <v>637.5</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
-        <v>44140</v>
+        <v>44173</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C24" s="3">
-        <v>13250</v>
+        <v>13500</v>
       </c>
       <c r="D24" s="3">
-        <f t="shared" si="11"/>
-        <v>280</v>
+        <f t="shared" si="13"/>
+        <v>250</v>
       </c>
       <c r="E24" s="8">
         <v>4.71</v>
       </c>
       <c r="F24" s="6">
-        <f t="shared" si="10"/>
-        <v>1318.8</v>
+        <f t="shared" si="12"/>
+        <v>1177.5</v>
       </c>
       <c r="G24" s="6">
         <f>SUM(F24,F25)</f>
-        <v>1446.3</v>
+        <v>1662</v>
       </c>
       <c r="H24" s="6">
-        <v>1446.3</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1144,49 +1144,49 @@
         <v>1</v>
       </c>
       <c r="C25" s="3">
-        <v>5960</v>
+        <v>6150</v>
       </c>
       <c r="D25" s="3">
-        <f t="shared" si="11"/>
-        <v>50</v>
+        <f t="shared" si="13"/>
+        <v>190</v>
       </c>
       <c r="E25" s="9">
         <v>2.5499999999999998</v>
       </c>
       <c r="F25" s="6">
-        <f t="shared" si="10"/>
-        <v>127.49999999999999</v>
+        <f t="shared" si="12"/>
+        <v>484.49999999999994</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="10">
-        <v>44090</v>
+        <v>44140</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C26" s="3">
-        <v>12970</v>
+        <v>13250</v>
       </c>
       <c r="D26" s="3">
-        <f t="shared" si="11"/>
-        <v>240</v>
+        <f t="shared" si="13"/>
+        <v>280</v>
       </c>
       <c r="E26" s="8">
         <v>4.71</v>
       </c>
       <c r="F26" s="6">
-        <f t="shared" si="10"/>
-        <v>1130.4000000000001</v>
+        <f t="shared" si="12"/>
+        <v>1318.8</v>
       </c>
       <c r="G26" s="6">
         <f>SUM(F26,F27)</f>
-        <v>1334.4</v>
+        <v>1446.3</v>
       </c>
       <c r="H26" s="6">
-        <v>1334.4</v>
+        <v>1446.3</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1195,49 +1195,49 @@
         <v>1</v>
       </c>
       <c r="C27" s="3">
-        <v>5910</v>
+        <v>5960</v>
       </c>
       <c r="D27" s="3">
-        <f t="shared" si="11"/>
-        <v>80</v>
+        <f t="shared" si="13"/>
+        <v>50</v>
       </c>
       <c r="E27" s="9">
         <v>2.5499999999999998</v>
       </c>
       <c r="F27" s="6">
-        <f t="shared" si="10"/>
-        <v>204</v>
+        <f t="shared" si="12"/>
+        <v>127.49999999999999</v>
       </c>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="10">
-        <v>44053</v>
+        <v>44090</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C28" s="3">
-        <v>12730</v>
+        <v>12970</v>
       </c>
       <c r="D28" s="3">
-        <f t="shared" si="11"/>
-        <v>185</v>
+        <f t="shared" si="13"/>
+        <v>240</v>
       </c>
       <c r="E28" s="8">
         <v>4.71</v>
       </c>
       <c r="F28" s="6">
-        <f t="shared" si="10"/>
-        <v>871.35</v>
+        <f t="shared" si="12"/>
+        <v>1130.4000000000001</v>
       </c>
       <c r="G28" s="6">
         <f>SUM(F28,F29)</f>
-        <v>1016.7</v>
+        <v>1334.4</v>
       </c>
       <c r="H28" s="6">
-        <v>1016.7</v>
+        <v>1334.4</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1246,49 +1246,49 @@
         <v>1</v>
       </c>
       <c r="C29" s="3">
-        <v>5830</v>
+        <v>5910</v>
       </c>
       <c r="D29" s="3">
-        <f t="shared" si="11"/>
-        <v>57</v>
+        <f t="shared" si="13"/>
+        <v>80</v>
       </c>
       <c r="E29" s="9">
         <v>2.5499999999999998</v>
       </c>
       <c r="F29" s="6">
-        <f t="shared" si="10"/>
-        <v>145.35</v>
+        <f t="shared" si="12"/>
+        <v>204</v>
       </c>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="10">
-        <v>44005</v>
+        <v>44053</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C30" s="3">
-        <v>12545</v>
+        <v>12730</v>
       </c>
       <c r="D30" s="3">
-        <f t="shared" si="11"/>
-        <v>310</v>
+        <f t="shared" si="13"/>
+        <v>185</v>
       </c>
       <c r="E30" s="8">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F30" s="6">
-        <f t="shared" si="10"/>
-        <v>1391.9</v>
+        <f t="shared" si="12"/>
+        <v>871.35</v>
       </c>
       <c r="G30" s="6">
         <f>SUM(F30,F31)</f>
-        <v>1666.4900000000002</v>
+        <v>1016.7</v>
       </c>
       <c r="H30" s="6">
-        <v>1666.49</v>
+        <v>1016.7</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -1297,49 +1297,49 @@
         <v>1</v>
       </c>
       <c r="C31" s="3">
-        <v>5773</v>
+        <v>5830</v>
       </c>
       <c r="D31" s="3">
-        <f t="shared" si="11"/>
-        <v>113</v>
+        <f t="shared" si="13"/>
+        <v>57</v>
       </c>
       <c r="E31" s="9">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F31" s="6">
-        <f t="shared" si="10"/>
-        <v>274.59000000000003</v>
+        <f t="shared" si="12"/>
+        <v>145.35</v>
       </c>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="10">
-        <v>43980</v>
+        <v>44005</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C32" s="3">
-        <v>12235</v>
+        <v>12545</v>
       </c>
       <c r="D32" s="3">
-        <f t="shared" si="11"/>
-        <v>549</v>
+        <f t="shared" si="13"/>
+        <v>310</v>
       </c>
       <c r="E32" s="8">
         <v>4.49</v>
       </c>
       <c r="F32" s="6">
-        <f t="shared" si="10"/>
-        <v>2465.0100000000002</v>
+        <f t="shared" si="12"/>
+        <v>1391.9</v>
       </c>
       <c r="G32" s="6">
         <f>SUM(F32,F33)</f>
-        <v>2902.4100000000003</v>
+        <v>1666.4900000000002</v>
       </c>
       <c r="H32" s="6">
-        <v>2902.41</v>
+        <v>1666.49</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -1348,49 +1348,49 @@
         <v>1</v>
       </c>
       <c r="C33" s="3">
-        <v>5660</v>
+        <v>5773</v>
       </c>
       <c r="D33" s="3">
-        <f t="shared" si="11"/>
-        <v>180</v>
+        <f t="shared" si="13"/>
+        <v>113</v>
       </c>
       <c r="E33" s="9">
         <v>2.4300000000000002</v>
       </c>
       <c r="F33" s="6">
-        <f t="shared" si="10"/>
-        <v>437.40000000000003</v>
+        <f t="shared" si="12"/>
+        <v>274.59000000000003</v>
       </c>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="10">
-        <v>43934</v>
+        <v>43980</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C34" s="3">
-        <v>11686</v>
+        <v>12235</v>
       </c>
       <c r="D34" s="3">
-        <f t="shared" ref="D34:D39" si="12">SUM(C34,-C36)</f>
-        <v>306</v>
+        <f t="shared" si="13"/>
+        <v>549</v>
       </c>
       <c r="E34" s="8">
         <v>4.49</v>
       </c>
       <c r="F34" s="6">
-        <f t="shared" si="10"/>
-        <v>1373.94</v>
+        <f t="shared" si="12"/>
+        <v>2465.0100000000002</v>
       </c>
       <c r="G34" s="6">
         <f>SUM(F34,F35)</f>
-        <v>1616.94</v>
+        <v>2902.4100000000003</v>
       </c>
       <c r="H34" s="6">
-        <v>1616.94</v>
+        <v>2902.41</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -1399,49 +1399,49 @@
         <v>1</v>
       </c>
       <c r="C35" s="3">
-        <v>5480</v>
+        <v>5660</v>
       </c>
       <c r="D35" s="3">
-        <f t="shared" si="12"/>
-        <v>100</v>
+        <f t="shared" si="13"/>
+        <v>180</v>
       </c>
       <c r="E35" s="9">
         <v>2.4300000000000002</v>
       </c>
       <c r="F35" s="6">
-        <f t="shared" si="10"/>
-        <v>243.00000000000003</v>
+        <f t="shared" si="12"/>
+        <v>437.40000000000003</v>
       </c>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="10">
-        <v>43915</v>
+        <v>43934</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C36" s="3">
-        <v>11380</v>
+        <v>11686</v>
       </c>
       <c r="D36" s="3">
-        <f t="shared" si="12"/>
-        <v>172</v>
+        <f t="shared" ref="D36:D41" si="14">SUM(C36,-C38)</f>
+        <v>306</v>
       </c>
       <c r="E36" s="8">
         <v>4.49</v>
       </c>
       <c r="F36" s="6">
-        <f t="shared" si="10"/>
-        <v>772.28000000000009</v>
+        <f t="shared" si="12"/>
+        <v>1373.94</v>
       </c>
       <c r="G36" s="6">
         <f>SUM(F36,F37)</f>
-        <v>1027.43</v>
+        <v>1616.94</v>
       </c>
       <c r="H36" s="6">
-        <v>1027.43</v>
+        <v>1616.94</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -1450,49 +1450,49 @@
         <v>1</v>
       </c>
       <c r="C37" s="3">
-        <v>5380</v>
+        <v>5480</v>
       </c>
       <c r="D37" s="3">
-        <f t="shared" si="12"/>
-        <v>105</v>
+        <f t="shared" si="14"/>
+        <v>100</v>
       </c>
       <c r="E37" s="9">
         <v>2.4300000000000002</v>
       </c>
       <c r="F37" s="6">
-        <f t="shared" si="10"/>
-        <v>255.15</v>
+        <f t="shared" si="12"/>
+        <v>243.00000000000003</v>
       </c>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="10">
-        <v>43830</v>
+        <v>43915</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C38" s="3">
-        <v>11208</v>
+        <v>11380</v>
       </c>
       <c r="D38" s="3">
-        <f t="shared" si="12"/>
-        <v>566</v>
+        <f t="shared" si="14"/>
+        <v>172</v>
       </c>
       <c r="E38" s="8">
         <v>4.49</v>
       </c>
       <c r="F38" s="6">
-        <f t="shared" si="10"/>
-        <v>2541.34</v>
+        <f t="shared" si="12"/>
+        <v>772.28000000000009</v>
       </c>
       <c r="G38" s="6">
         <f>SUM(F38,F39)</f>
-        <v>3209.59</v>
+        <v>1027.43</v>
       </c>
       <c r="H38" s="6">
-        <v>3209.59</v>
+        <v>1027.43</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -1501,37 +1501,50 @@
         <v>1</v>
       </c>
       <c r="C39" s="3">
-        <v>5275</v>
+        <v>5380</v>
       </c>
       <c r="D39" s="3">
-        <f t="shared" si="12"/>
-        <v>275</v>
+        <f t="shared" si="14"/>
+        <v>105</v>
       </c>
       <c r="E39" s="9">
         <v>2.4300000000000002</v>
       </c>
       <c r="F39" s="6">
-        <f t="shared" si="10"/>
-        <v>668.25</v>
+        <f t="shared" si="12"/>
+        <v>255.15</v>
       </c>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="10">
-        <v>43805</v>
+        <v>43830</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C40" s="3">
-        <v>10642</v>
-      </c>
-      <c r="D40" s="3"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
+        <v>11208</v>
+      </c>
+      <c r="D40" s="3">
+        <f t="shared" si="14"/>
+        <v>566</v>
+      </c>
+      <c r="E40" s="8">
+        <v>4.49</v>
+      </c>
+      <c r="F40" s="6">
+        <f t="shared" si="12"/>
+        <v>2541.34</v>
+      </c>
+      <c r="G40" s="6">
+        <f>SUM(F40,F41)</f>
+        <v>3209.59</v>
+      </c>
+      <c r="H40" s="6">
+        <v>3209.59</v>
+      </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
@@ -1539,35 +1552,73 @@
         <v>1</v>
       </c>
       <c r="C41" s="3">
-        <v>5000</v>
-      </c>
-      <c r="D41" s="3"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="6"/>
+        <v>5275</v>
+      </c>
+      <c r="D41" s="3">
+        <f t="shared" si="14"/>
+        <v>275</v>
+      </c>
+      <c r="E41" s="9">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F41" s="6">
+        <f t="shared" si="12"/>
+        <v>668.25</v>
+      </c>
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="3" t="s">
+      <c r="A42" s="10">
+        <v>43805</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" s="3">
+        <v>10642</v>
+      </c>
+      <c r="D42" s="3"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="4"/>
+      <c r="B43" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="3">
+        <v>5000</v>
+      </c>
+      <c r="D43" s="3"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G42" s="6">
-        <f>SUM(G14:G41)</f>
+      <c r="G44" s="6">
+        <f>SUM(G16:G43)</f>
         <v>21294.26</v>
       </c>
-      <c r="H42" s="6">
-        <f>SUM(H14:H41)</f>
+      <c r="H44" s="6">
+        <f>SUM(H16:H43)</f>
         <v>21294.26</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
